--- a/2-Requisitos/2.5-Planilha_de_Contagem/Planilha de Contagem - SMTL.xlsx
+++ b/2-Requisitos/2.5-Planilha_de_Contagem/Planilha de Contagem - SMTL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mppr\Documents\documentação sistema\requisitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick\Documents\Git\SMTL\2-Requisitos\2.5-Planilha_de_Contagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sumário" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="CF">Funções!$K$8:$K$103</definedName>
+    <definedName name="CF">Funções!$K$8:$K$107</definedName>
     <definedName name="Data">Contagem!$X$7</definedName>
     <definedName name="Projeto">Contagem!$F$6</definedName>
     <definedName name="Responsável">Contagem!$F$7</definedName>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="106">
   <si>
     <t>Sumário da Contagem</t>
   </si>
@@ -496,25 +496,7 @@
     <t>Manter produtos</t>
   </si>
   <si>
-    <t>Cadastrar imagem</t>
-  </si>
-  <si>
-    <t>Editar imagem</t>
-  </si>
-  <si>
-    <t>Excluir imagem</t>
-  </si>
-  <si>
     <t>Excluir usuário</t>
-  </si>
-  <si>
-    <t>Cadastrar Parcela</t>
-  </si>
-  <si>
-    <t>Consultar parcela</t>
-  </si>
-  <si>
-    <t>Excluir parcela</t>
   </si>
   <si>
     <t>Consultar Funcionário</t>
@@ -530,9 +512,6 @@
   </si>
   <si>
     <t>Visualizar detalhes produto</t>
-  </si>
-  <si>
-    <t>Visualizar imagem</t>
   </si>
   <si>
     <t>Manter Transportadoras</t>
@@ -570,6 +549,15 @@
   <si>
     <t>Consultar produtos</t>
   </si>
+  <si>
+    <t>Visualizar detalhes compra</t>
+  </si>
+  <si>
+    <t>Calcular Total</t>
+  </si>
+  <si>
+    <t>Gerenciar itens compra</t>
+  </si>
 </sst>
 </file>
 
@@ -580,7 +568,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1205,7 +1193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1375,31 +1363,27 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1409,27 +1393,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1454,9 +1471,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1468,26 +1482,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1503,6 +1497,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1518,11 +1513,218 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFDD0806"/>
@@ -2719,6 +2921,150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3108,6 +3454,150 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9534525" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9534525" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9534525" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3561,6 +4051,150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3833,7 +4467,7 @@
       <selection activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="15" width="2.7109375" customWidth="1"/>
     <col min="16" max="16" width="0.85546875" customWidth="1"/>
@@ -3846,8 +4480,8 @@
     <col min="30" max="35" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:35" ht="12" customHeight="1">
+      <c r="A1" s="94" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="95"/>
@@ -3884,7 +4518,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="12" customHeight="1">
       <c r="A2" s="97"/>
       <c r="B2" s="98"/>
       <c r="C2" s="98"/>
@@ -3921,7 +4555,7 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="12" customHeight="1">
       <c r="A3" s="100"/>
       <c r="B3" s="101"/>
       <c r="C3" s="101"/>
@@ -3958,46 +4592,46 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
     </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+    <row r="4" spans="1:35" ht="12" customHeight="1">
+      <c r="A4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="106"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="87" t="s">
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="85"/>
+      <c r="S4" s="90"/>
       <c r="T4" s="6">
         <v>400</v>
       </c>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="85"/>
-      <c r="W4" s="88">
+      <c r="V4" s="90"/>
+      <c r="W4" s="111">
         <f>W5*T4</f>
-        <v>164800</v>
-      </c>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="85"/>
+        <v>162000</v>
+      </c>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="90"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -4006,42 +4640,42 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+    <row r="5" spans="1:35" ht="12" customHeight="1">
+      <c r="A5" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="87" t="s">
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="85"/>
-      <c r="W5" s="91">
+      <c r="V5" s="90"/>
+      <c r="W5" s="89">
         <f>SUM(Y11:Y14)</f>
-        <v>412</v>
-      </c>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="85"/>
+        <v>405</v>
+      </c>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="90"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -4050,37 +4684,37 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
     </row>
-    <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
+    <row r="6" spans="1:35" ht="12" customHeight="1">
+      <c r="A6" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="85"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="90"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -4089,39 +4723,39 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
     </row>
-    <row r="7" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+    <row r="7" spans="1:35" ht="12" customHeight="1">
+      <c r="A7" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="92" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="V7" s="84"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="85"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="90"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -4130,39 +4764,39 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
     </row>
-    <row r="8" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="s">
+    <row r="8" spans="1:35" ht="12" customHeight="1">
+      <c r="A8" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="92" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="V8" s="84"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="85"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="90"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -4171,7 +4805,7 @@
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
     </row>
-    <row r="9" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="12" customHeight="1">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4207,47 +4841,47 @@
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
     </row>
-    <row r="10" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
+    <row r="10" spans="1:35" ht="12" customHeight="1">
+      <c r="A10" s="110" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="96"/>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="85"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="90"/>
       <c r="L10" s="21"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
-      <c r="O10" s="104" t="s">
+      <c r="O10" s="110" t="s">
         <v>33</v>
       </c>
       <c r="P10" s="95"/>
-      <c r="Q10" s="87" t="s">
+      <c r="Q10" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="87" t="s">
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="87" t="s">
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="85"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="90"/>
       <c r="AC10" s="23"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -4256,47 +4890,47 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
     </row>
-    <row r="11" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="12" customHeight="1">
       <c r="A11" s="97"/>
       <c r="B11" s="99"/>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="85"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="90"/>
       <c r="L11" s="21"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="97"/>
       <c r="P11" s="98"/>
-      <c r="Q11" s="92" t="s">
+      <c r="Q11" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="85"/>
-      <c r="S11" s="91">
+      <c r="R11" s="90"/>
+      <c r="S11" s="89">
         <f>Sumário!E55</f>
-        <v>412</v>
-      </c>
-      <c r="T11" s="85"/>
-      <c r="U11" s="93">
+        <v>405</v>
+      </c>
+      <c r="T11" s="90"/>
+      <c r="U11" s="91">
         <v>1</v>
       </c>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="91">
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="89">
         <f t="shared" ref="Y11:Y14" si="0">S11*U11</f>
-        <v>412</v>
-      </c>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="85"/>
+        <v>405</v>
+      </c>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="90"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -4305,47 +4939,47 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
     </row>
-    <row r="12" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="12" customHeight="1">
       <c r="A12" s="97"/>
       <c r="B12" s="99"/>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="85"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="90"/>
       <c r="L12" s="21"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="97"/>
       <c r="P12" s="98"/>
-      <c r="Q12" s="92" t="s">
+      <c r="Q12" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="R12" s="84"/>
-      <c r="S12" s="91">
+      <c r="R12" s="92"/>
+      <c r="S12" s="89">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="85"/>
-      <c r="U12" s="93">
+      <c r="T12" s="90"/>
+      <c r="U12" s="91">
         <v>1</v>
       </c>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="91">
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="85"/>
+      <c r="Z12" s="92"/>
+      <c r="AA12" s="92"/>
+      <c r="AB12" s="90"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -4354,47 +4988,47 @@
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
     </row>
-    <row r="13" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="12" customHeight="1">
       <c r="A13" s="97"/>
       <c r="B13" s="99"/>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="85"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="90"/>
       <c r="L13" s="21"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="97"/>
       <c r="P13" s="98"/>
-      <c r="Q13" s="92" t="s">
+      <c r="Q13" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="84"/>
-      <c r="S13" s="91">
+      <c r="R13" s="92"/>
+      <c r="S13" s="89">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="85"/>
-      <c r="U13" s="93">
+      <c r="T13" s="90"/>
+      <c r="U13" s="91">
         <v>1</v>
       </c>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="91">
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="85"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="90"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -4403,7 +5037,7 @@
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
     </row>
-    <row r="14" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="12" customHeight="1">
       <c r="A14" s="100"/>
       <c r="B14" s="102"/>
       <c r="C14" s="1"/>
@@ -4420,24 +5054,24 @@
       <c r="N14" s="18"/>
       <c r="O14" s="100"/>
       <c r="P14" s="101"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="91">
+      <c r="Q14" s="105"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="89">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="85"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="91">
+      <c r="T14" s="90"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="85"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="92"/>
+      <c r="AB14" s="90"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -4446,7 +5080,7 @@
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
     </row>
-    <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="12" customHeight="1">
       <c r="A15" s="40" t="str">
         <f>HYPERLINK("http://www.fattocs.com.br/download/GuiaPlanilhaIFPUG.pdf","Veja aqui orientações para preenchimento da planilha")</f>
         <v>Veja aqui orientações para preenchimento da planilha</v>
@@ -4486,7 +5120,7 @@
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
     </row>
-    <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="12" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
@@ -4497,7 +5131,7 @@
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="103" t="s">
+      <c r="K16" s="109" t="s">
         <v>54</v>
       </c>
       <c r="L16" s="101"/>
@@ -4525,8 +5159,8 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
     </row>
-    <row r="17" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
+    <row r="17" spans="1:35" ht="12" customHeight="1">
+      <c r="A17" s="108"/>
       <c r="B17" s="95"/>
       <c r="C17" s="95"/>
       <c r="D17" s="95"/>
@@ -4562,7 +5196,7 @@
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
     </row>
-    <row r="18" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="12" customHeight="1">
       <c r="A18" s="97"/>
       <c r="B18" s="98"/>
       <c r="C18" s="98"/>
@@ -4599,7 +5233,7 @@
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
     </row>
-    <row r="19" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="12" customHeight="1">
       <c r="A19" s="97"/>
       <c r="B19" s="98"/>
       <c r="C19" s="98"/>
@@ -4636,7 +5270,7 @@
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
     </row>
-    <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="12" customHeight="1">
       <c r="A20" s="97"/>
       <c r="B20" s="98"/>
       <c r="C20" s="98"/>
@@ -4673,7 +5307,7 @@
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
     </row>
-    <row r="21" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="12" customHeight="1">
       <c r="A21" s="97"/>
       <c r="B21" s="98"/>
       <c r="C21" s="98"/>
@@ -4710,7 +5344,7 @@
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
     </row>
-    <row r="22" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="12" customHeight="1">
       <c r="A22" s="97"/>
       <c r="B22" s="98"/>
       <c r="C22" s="98"/>
@@ -4747,7 +5381,7 @@
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
     </row>
-    <row r="23" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="12" customHeight="1">
       <c r="A23" s="97"/>
       <c r="B23" s="98"/>
       <c r="C23" s="98"/>
@@ -4784,7 +5418,7 @@
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
     </row>
-    <row r="24" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="12" customHeight="1">
       <c r="A24" s="97"/>
       <c r="B24" s="98"/>
       <c r="C24" s="98"/>
@@ -4821,7 +5455,7 @@
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
     </row>
-    <row r="25" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="12" customHeight="1">
       <c r="A25" s="97"/>
       <c r="B25" s="98"/>
       <c r="C25" s="98"/>
@@ -4858,7 +5492,7 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
     </row>
-    <row r="26" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="12" customHeight="1">
       <c r="A26" s="97"/>
       <c r="B26" s="98"/>
       <c r="C26" s="98"/>
@@ -4895,7 +5529,7 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
     </row>
-    <row r="27" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="12" customHeight="1">
       <c r="A27" s="97"/>
       <c r="B27" s="98"/>
       <c r="C27" s="98"/>
@@ -4932,7 +5566,7 @@
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
     </row>
-    <row r="28" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="12" customHeight="1">
       <c r="A28" s="97"/>
       <c r="B28" s="98"/>
       <c r="C28" s="98"/>
@@ -4969,7 +5603,7 @@
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
     </row>
-    <row r="29" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="12" customHeight="1">
       <c r="A29" s="97"/>
       <c r="B29" s="98"/>
       <c r="C29" s="98"/>
@@ -5006,7 +5640,7 @@
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
     </row>
-    <row r="30" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="12" customHeight="1">
       <c r="A30" s="97"/>
       <c r="B30" s="98"/>
       <c r="C30" s="98"/>
@@ -5043,7 +5677,7 @@
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
     </row>
-    <row r="31" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="12" customHeight="1">
       <c r="A31" s="97"/>
       <c r="B31" s="98"/>
       <c r="C31" s="98"/>
@@ -5080,7 +5714,7 @@
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
     </row>
-    <row r="32" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="12" customHeight="1">
       <c r="A32" s="97"/>
       <c r="B32" s="98"/>
       <c r="C32" s="98"/>
@@ -5117,7 +5751,7 @@
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
     </row>
-    <row r="33" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="12" customHeight="1">
       <c r="A33" s="97"/>
       <c r="B33" s="98"/>
       <c r="C33" s="98"/>
@@ -5154,7 +5788,7 @@
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
     </row>
-    <row r="34" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="12" customHeight="1">
       <c r="A34" s="97"/>
       <c r="B34" s="98"/>
       <c r="C34" s="98"/>
@@ -5191,7 +5825,7 @@
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
     </row>
-    <row r="35" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="12" customHeight="1">
       <c r="A35" s="97"/>
       <c r="B35" s="98"/>
       <c r="C35" s="98"/>
@@ -5228,7 +5862,7 @@
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
     </row>
-    <row r="36" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" ht="12" customHeight="1">
       <c r="A36" s="97"/>
       <c r="B36" s="98"/>
       <c r="C36" s="98"/>
@@ -5265,7 +5899,7 @@
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
     </row>
-    <row r="37" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="12" customHeight="1">
       <c r="A37" s="97"/>
       <c r="B37" s="98"/>
       <c r="C37" s="98"/>
@@ -5302,7 +5936,7 @@
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
     </row>
-    <row r="38" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" ht="12" customHeight="1">
       <c r="A38" s="100"/>
       <c r="B38" s="101"/>
       <c r="C38" s="101"/>
@@ -5339,7 +5973,7 @@
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
     </row>
-    <row r="39" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="12" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5376,7 +6010,7 @@
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
     </row>
-    <row r="40" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" ht="12" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5387,7 +6021,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="103" t="s">
+      <c r="K40" s="109" t="s">
         <v>59</v>
       </c>
       <c r="L40" s="101"/>
@@ -5415,8 +6049,8 @@
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
     </row>
-    <row r="41" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="94"/>
+    <row r="41" spans="1:35" ht="12" customHeight="1">
+      <c r="A41" s="108"/>
       <c r="B41" s="95"/>
       <c r="C41" s="95"/>
       <c r="D41" s="95"/>
@@ -5452,7 +6086,7 @@
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
     </row>
-    <row r="42" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="12" customHeight="1">
       <c r="A42" s="97"/>
       <c r="B42" s="98"/>
       <c r="C42" s="98"/>
@@ -5489,7 +6123,7 @@
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
     </row>
-    <row r="43" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" ht="12" customHeight="1">
       <c r="A43" s="97"/>
       <c r="B43" s="98"/>
       <c r="C43" s="98"/>
@@ -5526,7 +6160,7 @@
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
     </row>
-    <row r="44" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" ht="12" customHeight="1">
       <c r="A44" s="97"/>
       <c r="B44" s="98"/>
       <c r="C44" s="98"/>
@@ -5563,7 +6197,7 @@
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
     </row>
-    <row r="45" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="12" customHeight="1">
       <c r="A45" s="97"/>
       <c r="B45" s="98"/>
       <c r="C45" s="98"/>
@@ -5600,7 +6234,7 @@
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
     </row>
-    <row r="46" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="12" customHeight="1">
       <c r="A46" s="97"/>
       <c r="B46" s="98"/>
       <c r="C46" s="98"/>
@@ -5637,7 +6271,7 @@
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
     </row>
-    <row r="47" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="12" customHeight="1">
       <c r="A47" s="97"/>
       <c r="B47" s="98"/>
       <c r="C47" s="98"/>
@@ -5674,7 +6308,7 @@
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
     </row>
-    <row r="48" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="12" customHeight="1">
       <c r="A48" s="97"/>
       <c r="B48" s="98"/>
       <c r="C48" s="98"/>
@@ -5711,7 +6345,7 @@
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
     </row>
-    <row r="49" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" ht="12" customHeight="1">
       <c r="A49" s="97"/>
       <c r="B49" s="98"/>
       <c r="C49" s="98"/>
@@ -5748,7 +6382,7 @@
       <c r="AH49" s="1"/>
       <c r="AI49" s="1"/>
     </row>
-    <row r="50" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" ht="12" customHeight="1">
       <c r="A50" s="97"/>
       <c r="B50" s="98"/>
       <c r="C50" s="98"/>
@@ -5785,7 +6419,7 @@
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
     </row>
-    <row r="51" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" ht="12" customHeight="1">
       <c r="A51" s="97"/>
       <c r="B51" s="98"/>
       <c r="C51" s="98"/>
@@ -5822,7 +6456,7 @@
       <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
     </row>
-    <row r="52" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="12" customHeight="1">
       <c r="A52" s="97"/>
       <c r="B52" s="98"/>
       <c r="C52" s="98"/>
@@ -5859,7 +6493,7 @@
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
     </row>
-    <row r="53" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" ht="12" customHeight="1">
       <c r="A53" s="97"/>
       <c r="B53" s="98"/>
       <c r="C53" s="98"/>
@@ -5896,7 +6530,7 @@
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
     </row>
-    <row r="54" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" ht="12" customHeight="1">
       <c r="A54" s="97"/>
       <c r="B54" s="98"/>
       <c r="C54" s="98"/>
@@ -5933,7 +6567,7 @@
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
     </row>
-    <row r="55" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" ht="12" customHeight="1">
       <c r="A55" s="97"/>
       <c r="B55" s="98"/>
       <c r="C55" s="98"/>
@@ -5970,7 +6604,7 @@
       <c r="AH55" s="1"/>
       <c r="AI55" s="1"/>
     </row>
-    <row r="56" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="12" customHeight="1">
       <c r="A56" s="97"/>
       <c r="B56" s="98"/>
       <c r="C56" s="98"/>
@@ -6007,7 +6641,7 @@
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
     </row>
-    <row r="57" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="12" customHeight="1">
       <c r="A57" s="97"/>
       <c r="B57" s="98"/>
       <c r="C57" s="98"/>
@@ -6044,7 +6678,7 @@
       <c r="AH57" s="1"/>
       <c r="AI57" s="1"/>
     </row>
-    <row r="58" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" ht="12" customHeight="1">
       <c r="A58" s="97"/>
       <c r="B58" s="98"/>
       <c r="C58" s="98"/>
@@ -6081,7 +6715,7 @@
       <c r="AH58" s="1"/>
       <c r="AI58" s="1"/>
     </row>
-    <row r="59" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" ht="12" customHeight="1">
       <c r="A59" s="97"/>
       <c r="B59" s="98"/>
       <c r="C59" s="98"/>
@@ -6118,7 +6752,7 @@
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
     </row>
-    <row r="60" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" ht="12" customHeight="1">
       <c r="A60" s="100"/>
       <c r="B60" s="101"/>
       <c r="C60" s="101"/>
@@ -6155,7 +6789,7 @@
       <c r="AH60" s="1"/>
       <c r="AI60" s="1"/>
     </row>
-    <row r="61" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" ht="12" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -6194,23 +6828,22 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="A1:AB3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="F8:T8"/>
-    <mergeCell ref="F7:T7"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="F6:AB6"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S12:T12"/>
     <mergeCell ref="A17:AB38"/>
     <mergeCell ref="A41:AB60"/>
     <mergeCell ref="K40:S40"/>
@@ -6227,22 +6860,23 @@
     <mergeCell ref="Y14:AB14"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="U12:X12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="F6:AB6"/>
-    <mergeCell ref="W5:AB5"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A1:AB3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="F8:T8"/>
+    <mergeCell ref="F7:T7"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="Y12:AB12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="http://www.fattocs.com.br/download/GuiaPlanilhaIFPUG.pdf"/>
@@ -6255,14 +6889,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T103"/>
+  <dimension ref="A1:T107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P57" sqref="P57:T57"/>
+      <pane ySplit="7" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" customWidth="1"/>
@@ -6281,8 +6915,8 @@
     <col min="20" max="20" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1">
+      <c r="A1" s="127" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="98"/>
@@ -6305,8 +6939,8 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="113"/>
+    <row r="2" spans="1:20" ht="15" customHeight="1">
+      <c r="A2" s="128"/>
       <c r="B2" s="98"/>
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
@@ -6327,8 +6961,8 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="113"/>
+    <row r="3" spans="1:20" ht="15" customHeight="1">
+      <c r="A3" s="128"/>
       <c r="B3" s="98"/>
       <c r="C3" s="98"/>
       <c r="D3" s="98"/>
@@ -6349,105 +6983,105 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="121" t="str">
+    <row r="4" spans="1:20" ht="15" customHeight="1">
+      <c r="A4" s="136" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="114" t="str">
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="129" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="85"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="120" t="str">
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="90"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1">
+      <c r="A5" s="135" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="114" t="str">
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="129" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="85"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="120" t="str">
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="90"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1">
+      <c r="A6" s="135" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v xml:space="preserve">Empresa : </v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="114" t="str">
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="129" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 400</v>
       </c>
-      <c r="G6" s="85"/>
-      <c r="H6" s="119" t="str">
+      <c r="G6" s="90"/>
+      <c r="H6" s="134" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
-        <v xml:space="preserve"> Custo= R$ 164.800,00</v>
+        <v xml:space="preserve"> Custo= R$ 162.000,00</v>
       </c>
       <c r="I6" s="101"/>
       <c r="J6" s="101"/>
       <c r="K6" s="101"/>
       <c r="L6" s="101"/>
       <c r="M6" s="102"/>
-      <c r="N6" s="115" t="str">
+      <c r="N6" s="130" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 412</v>
-      </c>
-      <c r="O6" s="116"/>
+        <v>PF  = 405</v>
+      </c>
+      <c r="O6" s="131"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
+    <row r="7" spans="1:20" ht="15" customHeight="1">
+      <c r="A7" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="85"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="90"/>
       <c r="G7" s="9" t="s">
         <v>15</v>
       </c>
@@ -6475,23 +7109,23 @@
       <c r="O7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="117" t="s">
+      <c r="P7" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-    </row>
-    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="127" t="s">
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="133"/>
+    </row>
+    <row r="8" spans="1:20" ht="18" customHeight="1">
+      <c r="A8" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="109"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="117"/>
       <c r="G8" s="22" t="s">
         <v>31</v>
       </c>
@@ -6505,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="26" t="str">
-        <f t="shared" ref="K8:K102" si="0">CONCATENATE(G8,L8)</f>
+        <f t="shared" ref="K8:K106" si="0">CONCATENATE(G8,L8)</f>
         <v>ALIL</v>
       </c>
       <c r="L8" s="29" t="str">
@@ -6513,7 +7147,7 @@
         <v>L</v>
       </c>
       <c r="M8" s="32" t="str">
-        <f t="shared" ref="M8:M102" si="2">IF(L8="L","Baixa",IF(L8="A","Média",IF(L8="","","Alta")))</f>
+        <f t="shared" ref="M8:M106" si="2">IF(L8="L","Baixa",IF(L8="A","Média",IF(L8="","","Alta")))</f>
         <v>Baixa</v>
       </c>
       <c r="N8" s="36">
@@ -6524,21 +7158,21 @@
         <f>IF(H8="I",N8*Contagem!$U$11,IF(H8="E",N8*Contagem!$U$13,IF(H8="A",N8*Contagem!$U$12,IF(H8="T",N8*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-    </row>
-    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="107" t="s">
+      <c r="P8" s="113"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+    </row>
+    <row r="9" spans="1:20" ht="18" customHeight="1">
+      <c r="A9" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="109"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="117"/>
       <c r="G9" s="22" t="s">
         <v>30</v>
       </c>
@@ -6571,21 +7205,21 @@
         <f>IF(H9="I",N9*Contagem!$U$11,IF(H9="E",N9*Contagem!$U$13,IF(H9="A",N9*Contagem!$U$12,IF(H9="T",N9*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-    </row>
-    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="107" t="s">
+      <c r="P9" s="113"/>
+      <c r="Q9" s="114"/>
+      <c r="R9" s="114"/>
+      <c r="S9" s="114"/>
+      <c r="T9" s="114"/>
+    </row>
+    <row r="10" spans="1:20" ht="18" customHeight="1">
+      <c r="A10" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="109"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="117"/>
       <c r="G10" s="22" t="s">
         <v>30</v>
       </c>
@@ -6614,21 +7248,21 @@
         <f>IF(H10="I",N10*Contagem!$U$11,IF(H10="E",N10*Contagem!$U$13,IF(H10="A",N10*Contagem!$U$12,IF(H10="T",N10*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-    </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="122" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="109"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+    </row>
+    <row r="11" spans="1:20" ht="18" customHeight="1">
+      <c r="A11" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="117"/>
       <c r="G11" s="22" t="s">
         <v>30</v>
       </c>
@@ -6657,21 +7291,21 @@
         <f>IF(H11="I",N11*Contagem!$U$11,IF(H11="E",N11*Contagem!$U$13,IF(H11="A",N11*Contagem!$U$12,IF(H11="T",N11*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-    </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="107" t="s">
+      <c r="P11" s="113"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="114"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
+    </row>
+    <row r="12" spans="1:20" ht="18" customHeight="1">
+      <c r="A12" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="109"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="117"/>
       <c r="G12" s="22" t="s">
         <v>52</v>
       </c>
@@ -6700,21 +7334,21 @@
         <f>IF(H12="I",N12*Contagem!$U$11,IF(H12="E",N12*Contagem!$U$13,IF(H12="A",N12*Contagem!$U$12,IF(H12="T",N12*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="111"/>
-    </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="107" t="s">
+      <c r="P12" s="113"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+    </row>
+    <row r="13" spans="1:20" ht="18" customHeight="1">
+      <c r="A13" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="109"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="117"/>
       <c r="G13" s="22" t="s">
         <v>30</v>
       </c>
@@ -6743,21 +7377,21 @@
         <f>IF(H13="I",N13*Contagem!$U$11,IF(H13="E",N13*Contagem!$U$13,IF(H13="A",N13*Contagem!$U$12,IF(H13="T",N13*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-    </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="128" t="s">
+      <c r="P13" s="113"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+    </row>
+    <row r="14" spans="1:20" ht="18" customHeight="1">
+      <c r="A14" s="119" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="95"/>
       <c r="C14" s="95"/>
       <c r="D14" s="95"/>
       <c r="E14" s="95"/>
-      <c r="F14" s="129"/>
+      <c r="F14" s="120"/>
       <c r="G14" s="22" t="s">
         <v>52</v>
       </c>
@@ -6786,21 +7420,21 @@
         <f>IF(H14="I",N14*Contagem!$U$11,IF(H14="E",N14*Contagem!$U$13,IF(H14="A",N14*Contagem!$U$12,IF(H14="T",N14*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-    </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="128" t="s">
+      <c r="P14" s="113"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+    </row>
+    <row r="15" spans="1:20" ht="18" customHeight="1">
+      <c r="A15" s="119" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="95"/>
       <c r="C15" s="95"/>
       <c r="D15" s="95"/>
       <c r="E15" s="95"/>
-      <c r="F15" s="129"/>
+      <c r="F15" s="120"/>
       <c r="G15" s="22" t="s">
         <v>49</v>
       </c>
@@ -6835,15 +7469,15 @@
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
     </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="130" t="s">
-        <v>92</v>
+    <row r="16" spans="1:20" ht="18" customHeight="1">
+      <c r="A16" s="121" t="s">
+        <v>86</v>
       </c>
       <c r="B16" s="95"/>
       <c r="C16" s="95"/>
       <c r="D16" s="95"/>
       <c r="E16" s="95"/>
-      <c r="F16" s="129"/>
+      <c r="F16" s="120"/>
       <c r="G16" s="65" t="s">
         <v>52</v>
       </c>
@@ -6878,13 +7512,13 @@
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
     </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="134"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="135"/>
+    <row r="17" spans="1:20" ht="18" customHeight="1">
+      <c r="A17" s="125"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="126"/>
       <c r="G17" s="26"/>
       <c r="H17" s="24" t="s">
         <v>36</v>
@@ -6911,21 +7545,21 @@
         <f>IF(H17="I",N17*Contagem!$U$11,IF(H17="E",N17*Contagem!$U$13,IF(H17="A",N17*Contagem!$U$12,IF(H17="T",N17*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="111"/>
-      <c r="S17" s="111"/>
-      <c r="T17" s="111"/>
-    </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="131" t="s">
+      <c r="P17" s="113"/>
+      <c r="Q17" s="114"/>
+      <c r="R17" s="114"/>
+      <c r="S17" s="114"/>
+      <c r="T17" s="114"/>
+    </row>
+    <row r="18" spans="1:20" ht="18" customHeight="1">
+      <c r="A18" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="133"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="124"/>
       <c r="G18" s="65" t="s">
         <v>31</v>
       </c>
@@ -6943,7 +7577,7 @@
         <v>ALIL</v>
       </c>
       <c r="L18" s="29" t="str">
-        <f t="shared" ref="L18:L102" si="10">IF(OR(ISBLANK(I18),ISBLANK(J18)),IF(OR(G18="ALI",G18="AIE"),"L",IF(ISBLANK(G18),"","A")),IF(G18="EE",IF(J18&gt;=3,IF(I18&gt;=5,"H","A"),IF(J18&gt;=2,IF(I18&gt;=16,"H",IF(I18&lt;=4,"L","A")),IF(I18&lt;=15,"L","A"))),IF(OR(G18="SE",G18="CE"),IF(J18&gt;=4,IF(I18&gt;=6,"H","A"),IF(J18&gt;=2,IF(I18&gt;=20,"H",IF(I18&lt;=5,"L","A")),IF(I18&lt;=19,"L","A"))),IF(OR(G18="ALI",G18="AIE"),IF(J18&gt;=6,IF(I18&gt;=20,"H","A"),IF(J18&gt;=2,IF(I18&gt;=51,"H",IF(I18&lt;=19,"L","A")),IF(I18&lt;=50,"L","A")))))))</f>
+        <f t="shared" ref="L18:L106" si="10">IF(OR(ISBLANK(I18),ISBLANK(J18)),IF(OR(G18="ALI",G18="AIE"),"L",IF(ISBLANK(G18),"","A")),IF(G18="EE",IF(J18&gt;=3,IF(I18&gt;=5,"H","A"),IF(J18&gt;=2,IF(I18&gt;=16,"H",IF(I18&lt;=4,"L","A")),IF(I18&lt;=15,"L","A"))),IF(OR(G18="SE",G18="CE"),IF(J18&gt;=4,IF(I18&gt;=6,"H","A"),IF(J18&gt;=2,IF(I18&gt;=20,"H",IF(I18&lt;=5,"L","A")),IF(I18&lt;=19,"L","A"))),IF(OR(G18="ALI",G18="AIE"),IF(J18&gt;=6,IF(I18&gt;=20,"H","A"),IF(J18&gt;=2,IF(I18&gt;=51,"H",IF(I18&lt;=19,"L","A")),IF(I18&lt;=50,"L","A")))))))</f>
         <v>L</v>
       </c>
       <c r="M18" s="32" t="str">
@@ -6951,28 +7585,28 @@
         <v>Baixa</v>
       </c>
       <c r="N18" s="36">
-        <f t="shared" ref="N18:N102" si="11">IF(ISBLANK(G18),"",IF(G18="ALI",IF(L18="L",7,IF(L18="A",10,15)),IF(G18="AIE",IF(L18="L",5,IF(L18="A",7,10)),IF(G18="SE",IF(L18="L",4,IF(L18="A",5,7)),IF(OR(G18="EE",G18="CE"),IF(L18="L",3,IF(L18="A",4,6)))))))</f>
+        <f t="shared" ref="N18:N106" si="11">IF(ISBLANK(G18),"",IF(G18="ALI",IF(L18="L",7,IF(L18="A",10,15)),IF(G18="AIE",IF(L18="L",5,IF(L18="A",7,10)),IF(G18="SE",IF(L18="L",4,IF(L18="A",5,7)),IF(OR(G18="EE",G18="CE"),IF(L18="L",3,IF(L18="A",4,6)))))))</f>
         <v>7</v>
       </c>
       <c r="O18" s="37">
         <f>IF(H18="I",N18*Contagem!$U$11,IF(H18="E",N18*Contagem!$U$13,IF(H18="A",N18*Contagem!$U$12,IF(H18="T",N18*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="111"/>
-      <c r="T18" s="111"/>
-    </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="122" t="s">
+      <c r="P18" s="113"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="114"/>
+      <c r="S18" s="114"/>
+      <c r="T18" s="114"/>
+    </row>
+    <row r="19" spans="1:20" ht="18" customHeight="1">
+      <c r="A19" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="117"/>
       <c r="G19" s="65" t="s">
         <v>30</v>
       </c>
@@ -7005,21 +7639,21 @@
         <f>IF(H19="I",N19*Contagem!$U$11,IF(H19="E",N19*Contagem!$U$13,IF(H19="A",N19*Contagem!$U$12,IF(H19="T",N19*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="111"/>
-      <c r="S19" s="111"/>
-      <c r="T19" s="111"/>
-    </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="122" t="s">
+      <c r="P19" s="113"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="114"/>
+    </row>
+    <row r="20" spans="1:20" ht="18" customHeight="1">
+      <c r="A20" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="117"/>
       <c r="G20" s="65" t="s">
         <v>30</v>
       </c>
@@ -7052,21 +7686,21 @@
         <f>IF(H20="I",N20*Contagem!$U$11,IF(H20="E",N20*Contagem!$U$13,IF(H20="A",N20*Contagem!$U$12,IF(H20="T",N20*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-    </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="122" t="s">
+      <c r="P20" s="113"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="114"/>
+    </row>
+    <row r="21" spans="1:20" ht="18" customHeight="1">
+      <c r="A21" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="117"/>
       <c r="G21" s="65" t="s">
         <v>30</v>
       </c>
@@ -7095,21 +7729,21 @@
         <f>IF(H21="I",N21*Contagem!$U$11,IF(H21="E",N21*Contagem!$U$13,IF(H21="A",N21*Contagem!$U$12,IF(H21="T",N21*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="111"/>
-    </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="122" t="s">
+      <c r="P21" s="113"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="114"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="114"/>
+    </row>
+    <row r="22" spans="1:20" ht="18" customHeight="1">
+      <c r="A22" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="109"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
       <c r="G22" s="65" t="s">
         <v>52</v>
       </c>
@@ -7138,21 +7772,21 @@
         <f>IF(H22="I",N22*Contagem!$U$11,IF(H22="E",N22*Contagem!$U$13,IF(H22="A",N22*Contagem!$U$12,IF(H22="T",N22*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="111"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="111"/>
-    </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="122" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="109"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="114"/>
+      <c r="R22" s="114"/>
+      <c r="S22" s="114"/>
+      <c r="T22" s="114"/>
+    </row>
+    <row r="23" spans="1:20" ht="18" customHeight="1">
+      <c r="A23" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="117"/>
       <c r="G23" s="65" t="s">
         <v>52</v>
       </c>
@@ -7181,19 +7815,19 @@
         <f>IF(H23="I",N23*Contagem!$U$11,IF(H23="E",N23*Contagem!$U$13,IF(H23="A",N23*Contagem!$U$12,IF(H23="T",N23*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="111"/>
-      <c r="S23" s="111"/>
-      <c r="T23" s="111"/>
-    </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="107"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="109"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="114"/>
+      <c r="R23" s="114"/>
+      <c r="S23" s="114"/>
+      <c r="T23" s="114"/>
+    </row>
+    <row r="24" spans="1:20" ht="18" customHeight="1">
+      <c r="A24" s="118"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="117"/>
       <c r="G24" s="26"/>
       <c r="H24" s="24" t="s">
         <v>36</v>
@@ -7220,21 +7854,21 @@
         <f>IF(H24="I",N24*Contagem!$U$11,IF(H24="E",N24*Contagem!$U$13,IF(H24="A",N24*Contagem!$U$12,IF(H24="T",N24*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="111"/>
-      <c r="T24" s="111"/>
-    </row>
-    <row r="25" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="123" t="s">
+      <c r="P24" s="113"/>
+      <c r="Q24" s="114"/>
+      <c r="R24" s="114"/>
+      <c r="S24" s="114"/>
+      <c r="T24" s="114"/>
+    </row>
+    <row r="25" spans="1:20" ht="18" customHeight="1">
+      <c r="A25" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="125"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="139"/>
       <c r="G25" s="65" t="s">
         <v>31</v>
       </c>
@@ -7256,7 +7890,7 @@
         <v>L</v>
       </c>
       <c r="M25" s="32" t="str">
-        <f t="shared" ref="M25:M59" si="18">IF(L25="L","Baixa",IF(L25="A","Média",IF(L25="","","Alta")))</f>
+        <f t="shared" ref="M25:M63" si="18">IF(L25="L","Baixa",IF(L25="A","Média",IF(L25="","","Alta")))</f>
         <v>Baixa</v>
       </c>
       <c r="N25" s="36">
@@ -7267,13 +7901,13 @@
         <f>IF(H25="I",N25*Contagem!$U$11,IF(H25="E",N25*Contagem!$U$13,IF(H25="A",N25*Contagem!$U$12,IF(H25="T",N25*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="111"/>
-    </row>
-    <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P25" s="113"/>
+      <c r="Q25" s="114"/>
+      <c r="R25" s="114"/>
+      <c r="S25" s="114"/>
+      <c r="T25" s="114"/>
+    </row>
+    <row r="26" spans="1:20" ht="18" customHeight="1">
       <c r="A26" s="67" t="s">
         <v>78</v>
       </c>
@@ -7314,13 +7948,13 @@
         <f>IF(H26="I",N26*Contagem!$U$11,IF(H26="E",N26*Contagem!$U$13,IF(H26="A",N26*Contagem!$U$12,IF(H26="T",N26*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="111"/>
-      <c r="T26" s="111"/>
-    </row>
-    <row r="27" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P26" s="113"/>
+      <c r="Q26" s="114"/>
+      <c r="R26" s="114"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="114"/>
+    </row>
+    <row r="27" spans="1:20" ht="18" customHeight="1">
       <c r="A27" s="67" t="s">
         <v>79</v>
       </c>
@@ -7361,13 +7995,13 @@
         <f>IF(H27="I",N27*Contagem!$U$11,IF(H27="E",N27*Contagem!$U$13,IF(H27="A",N27*Contagem!$U$12,IF(H27="T",N27*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-    </row>
-    <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P27" s="113"/>
+      <c r="Q27" s="114"/>
+      <c r="R27" s="114"/>
+      <c r="S27" s="114"/>
+      <c r="T27" s="114"/>
+    </row>
+    <row r="28" spans="1:20" ht="18" customHeight="1">
       <c r="A28" s="67" t="s">
         <v>75</v>
       </c>
@@ -7404,13 +8038,13 @@
         <f>IF(H28="I",N28*Contagem!$U$11,IF(H28="E",N28*Contagem!$U$13,IF(H28="A",N28*Contagem!$U$12,IF(H28="T",N28*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-    </row>
-    <row r="29" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P28" s="113"/>
+      <c r="Q28" s="114"/>
+      <c r="R28" s="114"/>
+      <c r="S28" s="114"/>
+      <c r="T28" s="114"/>
+    </row>
+    <row r="29" spans="1:20" ht="18" customHeight="1">
       <c r="A29" s="67" t="s">
         <v>76</v>
       </c>
@@ -7447,142 +8081,79 @@
         <f>IF(H29="I",N29*Contagem!$U$11,IF(H29="E",N29*Contagem!$U$13,IF(H29="A",N29*Contagem!$U$12,IF(H29="T",N29*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-    </row>
-    <row r="30" spans="1:20" s="71" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="74" t="s">
-        <v>89</v>
-      </c>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="114"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+    </row>
+    <row r="30" spans="1:20" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="74"/>
       <c r="B30" s="75"/>
       <c r="C30" s="75"/>
       <c r="D30" s="75"/>
       <c r="E30" s="75"/>
       <c r="F30" s="76"/>
-      <c r="G30" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="G30" s="65"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>EEA</v>
-      </c>
-      <c r="L30" s="29" t="str">
-        <f t="shared" si="17"/>
-        <v>A</v>
-      </c>
-      <c r="M30" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>Média</v>
-      </c>
-      <c r="N30" s="36">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="O30" s="37">
-        <f>IF(H30="I",N30*Contagem!$U$11,IF(H30="E",N30*Contagem!$U$13,IF(H30="A",N30*Contagem!$U$12,IF(H30="T",N30*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
+      <c r="K30" s="26"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="37"/>
       <c r="P30" s="72"/>
       <c r="Q30" s="73"/>
       <c r="R30" s="73"/>
       <c r="S30" s="73"/>
       <c r="T30" s="73"/>
     </row>
-    <row r="31" spans="1:20" s="71" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="74" t="s">
-        <v>91</v>
-      </c>
+    <row r="31" spans="1:20" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="74"/>
       <c r="B31" s="75"/>
       <c r="C31" s="75"/>
       <c r="D31" s="75"/>
       <c r="E31" s="75"/>
       <c r="F31" s="76"/>
-      <c r="G31" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="G31" s="65"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>EEA</v>
-      </c>
-      <c r="L31" s="29" t="str">
-        <f t="shared" si="17"/>
-        <v>A</v>
-      </c>
-      <c r="M31" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>Média</v>
-      </c>
-      <c r="N31" s="36">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="O31" s="37">
-        <f>IF(H31="I",N31*Contagem!$U$11,IF(H31="E",N31*Contagem!$U$13,IF(H31="A",N31*Contagem!$U$12,IF(H31="T",N31*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
+      <c r="K31" s="26"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="37"/>
       <c r="P31" s="72"/>
       <c r="Q31" s="73"/>
       <c r="R31" s="73"/>
       <c r="S31" s="73"/>
       <c r="T31" s="73"/>
     </row>
-    <row r="32" spans="1:20" s="71" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="74" t="s">
-        <v>90</v>
-      </c>
+    <row r="32" spans="1:20" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="74"/>
       <c r="B32" s="75"/>
       <c r="C32" s="75"/>
       <c r="D32" s="75"/>
       <c r="E32" s="75"/>
       <c r="F32" s="76"/>
-      <c r="G32" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="G32" s="65"/>
+      <c r="H32" s="24"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>CEA</v>
-      </c>
-      <c r="L32" s="29" t="str">
-        <f t="shared" si="17"/>
-        <v>A</v>
-      </c>
-      <c r="M32" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v>Média</v>
-      </c>
-      <c r="N32" s="36">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="O32" s="37">
-        <f>IF(H32="I",N32*Contagem!$U$11,IF(H32="E",N32*Contagem!$U$13,IF(H32="A",N32*Contagem!$U$12,IF(H32="T",N32*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
+      <c r="K32" s="26"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="37"/>
       <c r="P32" s="72"/>
       <c r="Q32" s="73"/>
       <c r="R32" s="73"/>
       <c r="S32" s="73"/>
       <c r="T32" s="73"/>
     </row>
-    <row r="33" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="18" customHeight="1">
       <c r="A33" s="64"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -7615,15 +8186,15 @@
         <f>IF(H33="I",N33*Contagem!$U$11,IF(H33="E",N33*Contagem!$U$13,IF(H33="A",N33*Contagem!$U$12,IF(H33="T",N33*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-    </row>
-    <row r="34" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P33" s="113"/>
+      <c r="Q33" s="114"/>
+      <c r="R33" s="114"/>
+      <c r="S33" s="114"/>
+      <c r="T33" s="114"/>
+    </row>
+    <row r="34" spans="1:20" ht="18" customHeight="1">
       <c r="A34" s="68" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B34" s="69"/>
       <c r="C34" s="69"/>
@@ -7662,13 +8233,13 @@
         <f>IF(H34="I",N34*Contagem!$U$11,IF(H34="E",N34*Contagem!$U$13,IF(H34="A",N34*Contagem!$U$12,IF(H34="T",N34*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P34" s="110"/>
-      <c r="Q34" s="111"/>
-      <c r="R34" s="111"/>
-      <c r="S34" s="111"/>
-      <c r="T34" s="111"/>
-    </row>
-    <row r="35" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P34" s="113"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+    </row>
+    <row r="35" spans="1:20" ht="18" customHeight="1">
       <c r="A35" s="67" t="s">
         <v>78</v>
       </c>
@@ -7709,13 +8280,13 @@
         <f>IF(H35="I",N35*Contagem!$U$11,IF(H35="E",N35*Contagem!$U$13,IF(H35="A",N35*Contagem!$U$12,IF(H35="T",N35*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="111"/>
-      <c r="R35" s="111"/>
-      <c r="S35" s="111"/>
-      <c r="T35" s="111"/>
-    </row>
-    <row r="36" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P35" s="113"/>
+      <c r="Q35" s="114"/>
+      <c r="R35" s="114"/>
+      <c r="S35" s="114"/>
+      <c r="T35" s="114"/>
+    </row>
+    <row r="36" spans="1:20" ht="18" customHeight="1">
       <c r="A36" s="67" t="s">
         <v>79</v>
       </c>
@@ -7756,13 +8327,13 @@
         <f>IF(H36="I",N36*Contagem!$U$11,IF(H36="E",N36*Contagem!$U$13,IF(H36="A",N36*Contagem!$U$12,IF(H36="T",N36*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P36" s="110"/>
-      <c r="Q36" s="111"/>
-      <c r="R36" s="111"/>
-      <c r="S36" s="111"/>
-      <c r="T36" s="111"/>
-    </row>
-    <row r="37" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P36" s="113"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="114"/>
+      <c r="S36" s="114"/>
+      <c r="T36" s="114"/>
+    </row>
+    <row r="37" spans="1:20" ht="18" customHeight="1">
       <c r="A37" s="67" t="s">
         <v>75</v>
       </c>
@@ -7799,13 +8370,13 @@
         <f>IF(H37="I",N37*Contagem!$U$11,IF(H37="E",N37*Contagem!$U$13,IF(H37="A",N37*Contagem!$U$12,IF(H37="T",N37*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="111"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="111"/>
-      <c r="T37" s="111"/>
-    </row>
-    <row r="38" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P37" s="113"/>
+      <c r="Q37" s="114"/>
+      <c r="R37" s="114"/>
+      <c r="S37" s="114"/>
+      <c r="T37" s="114"/>
+    </row>
+    <row r="38" spans="1:20" ht="18" customHeight="1">
       <c r="A38" s="67" t="s">
         <v>76</v>
       </c>
@@ -7842,13 +8413,13 @@
         <f>IF(H38="I",N38*Contagem!$U$11,IF(H38="E",N38*Contagem!$U$13,IF(H38="A",N38*Contagem!$U$12,IF(H38="T",N38*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P38" s="110"/>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="111"/>
-    </row>
-    <row r="39" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P38" s="113"/>
+      <c r="Q38" s="114"/>
+      <c r="R38" s="114"/>
+      <c r="S38" s="114"/>
+      <c r="T38" s="114"/>
+    </row>
+    <row r="39" spans="1:20" ht="18" customHeight="1">
       <c r="A39" s="64"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -7881,13 +8452,13 @@
         <f>IF(H39="I",N39*Contagem!$U$11,IF(H39="E",N39*Contagem!$U$13,IF(H39="A",N39*Contagem!$U$12,IF(H39="T",N39*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P39" s="110"/>
-      <c r="Q39" s="111"/>
-      <c r="R39" s="111"/>
-      <c r="S39" s="111"/>
-      <c r="T39" s="111"/>
-    </row>
-    <row r="40" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P39" s="113"/>
+      <c r="Q39" s="114"/>
+      <c r="R39" s="114"/>
+      <c r="S39" s="114"/>
+      <c r="T39" s="114"/>
+    </row>
+    <row r="40" spans="1:20" ht="18" customHeight="1">
       <c r="A40" s="68" t="s">
         <v>81</v>
       </c>
@@ -7928,13 +8499,13 @@
         <f>IF(H40="I",N40*Contagem!$U$11,IF(H40="E",N40*Contagem!$U$13,IF(H40="A",N40*Contagem!$U$12,IF(H40="T",N40*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P40" s="110"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-    </row>
-    <row r="41" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P40" s="113"/>
+      <c r="Q40" s="114"/>
+      <c r="R40" s="114"/>
+      <c r="S40" s="114"/>
+      <c r="T40" s="114"/>
+    </row>
+    <row r="41" spans="1:20" ht="18" customHeight="1">
       <c r="A41" s="67" t="s">
         <v>78</v>
       </c>
@@ -7975,13 +8546,13 @@
         <f>IF(H41="I",N41*Contagem!$U$11,IF(H41="E",N41*Contagem!$U$13,IF(H41="A",N41*Contagem!$U$12,IF(H41="T",N41*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P41" s="110"/>
-      <c r="Q41" s="111"/>
-      <c r="R41" s="111"/>
-      <c r="S41" s="111"/>
-      <c r="T41" s="111"/>
-    </row>
-    <row r="42" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P41" s="113"/>
+      <c r="Q41" s="114"/>
+      <c r="R41" s="114"/>
+      <c r="S41" s="114"/>
+      <c r="T41" s="114"/>
+    </row>
+    <row r="42" spans="1:20" ht="18" customHeight="1">
       <c r="A42" s="67" t="s">
         <v>79</v>
       </c>
@@ -8022,13 +8593,13 @@
         <f>IF(H42="I",N42*Contagem!$U$11,IF(H42="E",N42*Contagem!$U$13,IF(H42="A",N42*Contagem!$U$12,IF(H42="T",N42*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P42" s="110"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="111"/>
-    </row>
-    <row r="43" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P42" s="113"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+    </row>
+    <row r="43" spans="1:20" ht="18" customHeight="1">
       <c r="A43" s="67" t="s">
         <v>75</v>
       </c>
@@ -8065,13 +8636,13 @@
         <f>IF(H43="I",N43*Contagem!$U$11,IF(H43="E",N43*Contagem!$U$13,IF(H43="A",N43*Contagem!$U$12,IF(H43="T",N43*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P43" s="110"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="111"/>
-      <c r="S43" s="111"/>
-      <c r="T43" s="111"/>
-    </row>
-    <row r="44" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P43" s="113"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+    </row>
+    <row r="44" spans="1:20" ht="18" customHeight="1">
       <c r="A44" s="67" t="s">
         <v>76</v>
       </c>
@@ -8108,15 +8679,15 @@
         <f>IF(H44="I",N44*Contagem!$U$11,IF(H44="E",N44*Contagem!$U$13,IF(H44="A",N44*Contagem!$U$12,IF(H44="T",N44*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P44" s="110"/>
-      <c r="Q44" s="111"/>
-      <c r="R44" s="111"/>
-      <c r="S44" s="111"/>
-      <c r="T44" s="111"/>
-    </row>
-    <row r="45" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P44" s="113"/>
+      <c r="Q44" s="114"/>
+      <c r="R44" s="114"/>
+      <c r="S44" s="114"/>
+      <c r="T44" s="114"/>
+    </row>
+    <row r="45" spans="1:20" ht="18" customHeight="1">
       <c r="A45" s="67" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -8151,13 +8722,13 @@
         <f>IF(H45="I",N45*Contagem!$U$11,IF(H45="E",N45*Contagem!$U$13,IF(H45="A",N45*Contagem!$U$12,IF(H45="T",N45*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P45" s="110"/>
-      <c r="Q45" s="111"/>
-      <c r="R45" s="111"/>
-      <c r="S45" s="111"/>
-      <c r="T45" s="111"/>
-    </row>
-    <row r="46" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P45" s="113"/>
+      <c r="Q45" s="114"/>
+      <c r="R45" s="114"/>
+      <c r="S45" s="114"/>
+      <c r="T45" s="114"/>
+    </row>
+    <row r="46" spans="1:20" ht="18" customHeight="1">
       <c r="A46" s="64"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -8190,13 +8761,13 @@
         <f>IF(H46="I",N46*Contagem!$U$11,IF(H46="E",N46*Contagem!$U$13,IF(H46="A",N46*Contagem!$U$12,IF(H46="T",N46*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P46" s="110"/>
-      <c r="Q46" s="111"/>
-      <c r="R46" s="111"/>
-      <c r="S46" s="111"/>
-      <c r="T46" s="111"/>
-    </row>
-    <row r="47" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P46" s="113"/>
+      <c r="Q46" s="114"/>
+      <c r="R46" s="114"/>
+      <c r="S46" s="114"/>
+      <c r="T46" s="114"/>
+    </row>
+    <row r="47" spans="1:20" ht="18" customHeight="1">
       <c r="A47" s="68" t="s">
         <v>82</v>
       </c>
@@ -8237,13 +8808,13 @@
         <f>IF(H47="I",N47*Contagem!$U$11,IF(H47="E",N47*Contagem!$U$13,IF(H47="A",N47*Contagem!$U$12,IF(H47="T",N47*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P47" s="110"/>
-      <c r="Q47" s="111"/>
-      <c r="R47" s="111"/>
-      <c r="S47" s="111"/>
-      <c r="T47" s="111"/>
-    </row>
-    <row r="48" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P47" s="113"/>
+      <c r="Q47" s="114"/>
+      <c r="R47" s="114"/>
+      <c r="S47" s="114"/>
+      <c r="T47" s="114"/>
+    </row>
+    <row r="48" spans="1:20" ht="18" customHeight="1">
       <c r="A48" s="67" t="s">
         <v>78</v>
       </c>
@@ -8284,13 +8855,13 @@
         <f>IF(H48="I",N48*Contagem!$U$11,IF(H48="E",N48*Contagem!$U$13,IF(H48="A",N48*Contagem!$U$12,IF(H48="T",N48*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P48" s="110"/>
-      <c r="Q48" s="111"/>
-      <c r="R48" s="111"/>
-      <c r="S48" s="111"/>
-      <c r="T48" s="111"/>
-    </row>
-    <row r="49" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P48" s="113"/>
+      <c r="Q48" s="114"/>
+      <c r="R48" s="114"/>
+      <c r="S48" s="114"/>
+      <c r="T48" s="114"/>
+    </row>
+    <row r="49" spans="1:20" ht="18" customHeight="1">
       <c r="A49" s="67" t="s">
         <v>79</v>
       </c>
@@ -8331,13 +8902,13 @@
         <f>IF(H49="I",N49*Contagem!$U$11,IF(H49="E",N49*Contagem!$U$13,IF(H49="A",N49*Contagem!$U$12,IF(H49="T",N49*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P49" s="110"/>
-      <c r="Q49" s="111"/>
-      <c r="R49" s="111"/>
-      <c r="S49" s="111"/>
-      <c r="T49" s="111"/>
-    </row>
-    <row r="50" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P49" s="113"/>
+      <c r="Q49" s="114"/>
+      <c r="R49" s="114"/>
+      <c r="S49" s="114"/>
+      <c r="T49" s="114"/>
+    </row>
+    <row r="50" spans="1:20" ht="18" customHeight="1">
       <c r="A50" s="67" t="s">
         <v>75</v>
       </c>
@@ -8374,13 +8945,13 @@
         <f>IF(H50="I",N50*Contagem!$U$11,IF(H50="E",N50*Contagem!$U$13,IF(H50="A",N50*Contagem!$U$12,IF(H50="T",N50*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P50" s="110"/>
-      <c r="Q50" s="111"/>
-      <c r="R50" s="111"/>
-      <c r="S50" s="111"/>
-      <c r="T50" s="111"/>
-    </row>
-    <row r="51" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P50" s="113"/>
+      <c r="Q50" s="114"/>
+      <c r="R50" s="114"/>
+      <c r="S50" s="114"/>
+      <c r="T50" s="114"/>
+    </row>
+    <row r="51" spans="1:20" ht="18" customHeight="1">
       <c r="A51" s="67" t="s">
         <v>76</v>
       </c>
@@ -8417,15 +8988,15 @@
         <f>IF(H51="I",N51*Contagem!$U$11,IF(H51="E",N51*Contagem!$U$13,IF(H51="A",N51*Contagem!$U$12,IF(H51="T",N51*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P51" s="110"/>
-      <c r="Q51" s="111"/>
-      <c r="R51" s="111"/>
-      <c r="S51" s="111"/>
-      <c r="T51" s="111"/>
-    </row>
-    <row r="52" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P51" s="113"/>
+      <c r="Q51" s="114"/>
+      <c r="R51" s="114"/>
+      <c r="S51" s="114"/>
+      <c r="T51" s="114"/>
+    </row>
+    <row r="52" spans="1:20" ht="18" customHeight="1">
       <c r="A52" s="67" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -8460,13 +9031,13 @@
         <f>IF(H52="I",N52*Contagem!$U$11,IF(H52="E",N52*Contagem!$U$13,IF(H52="A",N52*Contagem!$U$12,IF(H52="T",N52*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P52" s="110"/>
-      <c r="Q52" s="111"/>
-      <c r="R52" s="111"/>
-      <c r="S52" s="111"/>
-      <c r="T52" s="111"/>
-    </row>
-    <row r="53" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P52" s="113"/>
+      <c r="Q52" s="114"/>
+      <c r="R52" s="114"/>
+      <c r="S52" s="114"/>
+      <c r="T52" s="114"/>
+    </row>
+    <row r="53" spans="1:20" ht="18" customHeight="1">
       <c r="A53" s="64"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -8499,15 +9070,15 @@
         <f>IF(H53="I",N53*Contagem!$U$11,IF(H53="E",N53*Contagem!$U$13,IF(H53="A",N53*Contagem!$U$12,IF(H53="T",N53*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P53" s="110"/>
-      <c r="Q53" s="111"/>
-      <c r="R53" s="111"/>
-      <c r="S53" s="111"/>
-      <c r="T53" s="111"/>
-    </row>
-    <row r="54" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P53" s="113"/>
+      <c r="Q53" s="114"/>
+      <c r="R53" s="114"/>
+      <c r="S53" s="114"/>
+      <c r="T53" s="114"/>
+    </row>
+    <row r="54" spans="1:20" ht="18" customHeight="1">
       <c r="A54" s="68" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B54" s="69"/>
       <c r="C54" s="69"/>
@@ -8527,11 +9098,11 @@
         <v>3</v>
       </c>
       <c r="K54" s="26" t="str">
-        <f t="shared" ref="K54:K76" si="20">CONCATENATE(G54,L54)</f>
+        <f t="shared" ref="K54:K80" si="20">CONCATENATE(G54,L54)</f>
         <v>ALIL</v>
       </c>
       <c r="L54" s="29" t="str">
-        <f t="shared" ref="L54:L76" si="21">IF(OR(ISBLANK(I54),ISBLANK(J54)),IF(OR(G54="ALI",G54="AIE"),"L",IF(ISBLANK(G54),"","A")),IF(G54="EE",IF(J54&gt;=3,IF(I54&gt;=5,"H","A"),IF(J54&gt;=2,IF(I54&gt;=16,"H",IF(I54&lt;=4,"L","A")),IF(I54&lt;=15,"L","A"))),IF(OR(G54="SE",G54="CE"),IF(J54&gt;=4,IF(I54&gt;=6,"H","A"),IF(J54&gt;=2,IF(I54&gt;=20,"H",IF(I54&lt;=5,"L","A")),IF(I54&lt;=19,"L","A"))),IF(OR(G54="ALI",G54="AIE"),IF(J54&gt;=6,IF(I54&gt;=20,"H","A"),IF(J54&gt;=2,IF(I54&gt;=51,"H",IF(I54&lt;=19,"L","A")),IF(I54&lt;=50,"L","A")))))))</f>
+        <f t="shared" ref="L54:L80" si="21">IF(OR(ISBLANK(I54),ISBLANK(J54)),IF(OR(G54="ALI",G54="AIE"),"L",IF(ISBLANK(G54),"","A")),IF(G54="EE",IF(J54&gt;=3,IF(I54&gt;=5,"H","A"),IF(J54&gt;=2,IF(I54&gt;=16,"H",IF(I54&lt;=4,"L","A")),IF(I54&lt;=15,"L","A"))),IF(OR(G54="SE",G54="CE"),IF(J54&gt;=4,IF(I54&gt;=6,"H","A"),IF(J54&gt;=2,IF(I54&gt;=20,"H",IF(I54&lt;=5,"L","A")),IF(I54&lt;=19,"L","A"))),IF(OR(G54="ALI",G54="AIE"),IF(J54&gt;=6,IF(I54&gt;=20,"H","A"),IF(J54&gt;=2,IF(I54&gt;=51,"H",IF(I54&lt;=19,"L","A")),IF(I54&lt;=50,"L","A")))))))</f>
         <v>L</v>
       </c>
       <c r="M54" s="32" t="str">
@@ -8539,20 +9110,20 @@
         <v>Baixa</v>
       </c>
       <c r="N54" s="36">
-        <f t="shared" ref="N54:N76" si="22">IF(ISBLANK(G54),"",IF(G54="ALI",IF(L54="L",7,IF(L54="A",10,15)),IF(G54="AIE",IF(L54="L",5,IF(L54="A",7,10)),IF(G54="SE",IF(L54="L",4,IF(L54="A",5,7)),IF(OR(G54="EE",G54="CE"),IF(L54="L",3,IF(L54="A",4,6)))))))</f>
+        <f t="shared" ref="N54:N80" si="22">IF(ISBLANK(G54),"",IF(G54="ALI",IF(L54="L",7,IF(L54="A",10,15)),IF(G54="AIE",IF(L54="L",5,IF(L54="A",7,10)),IF(G54="SE",IF(L54="L",4,IF(L54="A",5,7)),IF(OR(G54="EE",G54="CE"),IF(L54="L",3,IF(L54="A",4,6)))))))</f>
         <v>7</v>
       </c>
       <c r="O54" s="37">
         <f>IF(H54="I",N54*Contagem!$U$11,IF(H54="E",N54*Contagem!$U$13,IF(H54="A",N54*Contagem!$U$12,IF(H54="T",N54*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P54" s="110"/>
-      <c r="Q54" s="111"/>
-      <c r="R54" s="111"/>
-      <c r="S54" s="111"/>
-      <c r="T54" s="111"/>
-    </row>
-    <row r="55" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P54" s="113"/>
+      <c r="Q54" s="114"/>
+      <c r="R54" s="114"/>
+      <c r="S54" s="114"/>
+      <c r="T54" s="114"/>
+    </row>
+    <row r="55" spans="1:20" ht="18" customHeight="1">
       <c r="A55" s="67" t="s">
         <v>78</v>
       </c>
@@ -8593,13 +9164,13 @@
         <f>IF(H55="I",N55*Contagem!$U$11,IF(H55="E",N55*Contagem!$U$13,IF(H55="A",N55*Contagem!$U$12,IF(H55="T",N55*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P55" s="110"/>
-      <c r="Q55" s="111"/>
-      <c r="R55" s="111"/>
-      <c r="S55" s="111"/>
-      <c r="T55" s="111"/>
-    </row>
-    <row r="56" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P55" s="113"/>
+      <c r="Q55" s="114"/>
+      <c r="R55" s="114"/>
+      <c r="S55" s="114"/>
+      <c r="T55" s="114"/>
+    </row>
+    <row r="56" spans="1:20" ht="18" customHeight="1">
       <c r="A56" s="67" t="s">
         <v>79</v>
       </c>
@@ -8640,13 +9211,13 @@
         <f>IF(H56="I",N56*Contagem!$U$11,IF(H56="E",N56*Contagem!$U$13,IF(H56="A",N56*Contagem!$U$12,IF(H56="T",N56*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P56" s="110"/>
-      <c r="Q56" s="111"/>
-      <c r="R56" s="111"/>
-      <c r="S56" s="111"/>
-      <c r="T56" s="111"/>
-    </row>
-    <row r="57" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P56" s="113"/>
+      <c r="Q56" s="114"/>
+      <c r="R56" s="114"/>
+      <c r="S56" s="114"/>
+      <c r="T56" s="114"/>
+    </row>
+    <row r="57" spans="1:20" ht="18" customHeight="1">
       <c r="A57" s="67" t="s">
         <v>75</v>
       </c>
@@ -8683,13 +9254,13 @@
         <f>IF(H57="I",N57*Contagem!$U$11,IF(H57="E",N57*Contagem!$U$13,IF(H57="A",N57*Contagem!$U$12,IF(H57="T",N57*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P57" s="110"/>
-      <c r="Q57" s="111"/>
-      <c r="R57" s="111"/>
-      <c r="S57" s="111"/>
-      <c r="T57" s="111"/>
-    </row>
-    <row r="58" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P57" s="113"/>
+      <c r="Q57" s="114"/>
+      <c r="R57" s="114"/>
+      <c r="S57" s="114"/>
+      <c r="T57" s="114"/>
+    </row>
+    <row r="58" spans="1:20" ht="18" customHeight="1">
       <c r="A58" s="67" t="s">
         <v>76</v>
       </c>
@@ -8726,203 +9297,192 @@
         <f>IF(H58="I",N58*Contagem!$U$11,IF(H58="E",N58*Contagem!$U$13,IF(H58="A",N58*Contagem!$U$12,IF(H58="T",N58*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P58" s="110"/>
-      <c r="Q58" s="111"/>
-      <c r="R58" s="111"/>
-      <c r="S58" s="111"/>
-      <c r="T58" s="111"/>
-    </row>
-    <row r="59" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="64"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="26"/>
+      <c r="P58" s="113"/>
+      <c r="Q58" s="114"/>
+      <c r="R58" s="114"/>
+      <c r="S58" s="114"/>
+      <c r="T58" s="114"/>
+    </row>
+    <row r="59" spans="1:20" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A59" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="87"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="65" t="s">
+        <v>52</v>
+      </c>
       <c r="H59" s="24" t="s">
         <v>36</v>
       </c>
       <c r="I59" s="26"/>
       <c r="J59" s="26"/>
       <c r="K59" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" ref="K59" si="23">CONCATENATE(G59,L59)</f>
+        <v>CEA</v>
       </c>
       <c r="L59" s="29" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" ref="L59" si="24">IF(OR(ISBLANK(I59),ISBLANK(J59)),IF(OR(G59="ALI",G59="AIE"),"L",IF(ISBLANK(G59),"","A")),IF(G59="EE",IF(J59&gt;=3,IF(I59&gt;=5,"H","A"),IF(J59&gt;=2,IF(I59&gt;=16,"H",IF(I59&lt;=4,"L","A")),IF(I59&lt;=15,"L","A"))),IF(OR(G59="SE",G59="CE"),IF(J59&gt;=4,IF(I59&gt;=6,"H","A"),IF(J59&gt;=2,IF(I59&gt;=20,"H",IF(I59&lt;=5,"L","A")),IF(I59&lt;=19,"L","A"))),IF(OR(G59="ALI",G59="AIE"),IF(J59&gt;=6,IF(I59&gt;=20,"H","A"),IF(J59&gt;=2,IF(I59&gt;=51,"H",IF(I59&lt;=19,"L","A")),IF(I59&lt;=50,"L","A")))))))</f>
+        <v>A</v>
       </c>
       <c r="M59" s="32" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="N59" s="36" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="O59" s="37" t="e">
+        <f t="shared" ref="M59" si="25">IF(L59="L","Baixa",IF(L59="A","Média",IF(L59="","","Alta")))</f>
+        <v>Média</v>
+      </c>
+      <c r="N59" s="36">
+        <f t="shared" ref="N59" si="26">IF(ISBLANK(G59),"",IF(G59="ALI",IF(L59="L",7,IF(L59="A",10,15)),IF(G59="AIE",IF(L59="L",5,IF(L59="A",7,10)),IF(G59="SE",IF(L59="L",4,IF(L59="A",5,7)),IF(OR(G59="EE",G59="CE"),IF(L59="L",3,IF(L59="A",4,6)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="O59" s="37">
         <f>IF(H59="I",N59*Contagem!$U$11,IF(H59="E",N59*Contagem!$U$13,IF(H59="A",N59*Contagem!$U$12,IF(H59="T",N59*Contagem!$U$14,""))))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P59" s="110"/>
-      <c r="Q59" s="111"/>
-      <c r="R59" s="111"/>
-      <c r="S59" s="111"/>
-      <c r="T59" s="111"/>
-    </row>
-    <row r="60" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="69"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="70"/>
+        <v>4</v>
+      </c>
+      <c r="P59" s="84"/>
+      <c r="Q59" s="85"/>
+      <c r="R59" s="85"/>
+      <c r="S59" s="85"/>
+      <c r="T59" s="85"/>
+    </row>
+    <row r="60" spans="1:20" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A60" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="87"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="88"/>
       <c r="G60" s="65" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H60" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I60" s="26">
-        <v>2</v>
-      </c>
-      <c r="J60" s="26">
-        <v>3</v>
-      </c>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
       <c r="K60" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>ALIL</v>
+        <f t="shared" ref="K60:K62" si="27">CONCATENATE(G60,L60)</f>
+        <v>SEA</v>
       </c>
       <c r="L60" s="29" t="str">
-        <f t="shared" si="21"/>
-        <v>L</v>
-      </c>
-      <c r="M60" s="66" t="s">
-        <v>40</v>
+        <f t="shared" ref="L60:L62" si="28">IF(OR(ISBLANK(I60),ISBLANK(J60)),IF(OR(G60="ALI",G60="AIE"),"L",IF(ISBLANK(G60),"","A")),IF(G60="EE",IF(J60&gt;=3,IF(I60&gt;=5,"H","A"),IF(J60&gt;=2,IF(I60&gt;=16,"H",IF(I60&lt;=4,"L","A")),IF(I60&lt;=15,"L","A"))),IF(OR(G60="SE",G60="CE"),IF(J60&gt;=4,IF(I60&gt;=6,"H","A"),IF(J60&gt;=2,IF(I60&gt;=20,"H",IF(I60&lt;=5,"L","A")),IF(I60&lt;=19,"L","A"))),IF(OR(G60="ALI",G60="AIE"),IF(J60&gt;=6,IF(I60&gt;=20,"H","A"),IF(J60&gt;=2,IF(I60&gt;=51,"H",IF(I60&lt;=19,"L","A")),IF(I60&lt;=50,"L","A")))))))</f>
+        <v>A</v>
+      </c>
+      <c r="M60" s="32" t="str">
+        <f t="shared" ref="M60:M62" si="29">IF(L60="L","Baixa",IF(L60="A","Média",IF(L60="","","Alta")))</f>
+        <v>Média</v>
       </c>
       <c r="N60" s="36">
-        <f t="shared" si="22"/>
-        <v>7</v>
+        <f t="shared" ref="N60:N62" si="30">IF(ISBLANK(G60),"",IF(G60="ALI",IF(L60="L",7,IF(L60="A",10,15)),IF(G60="AIE",IF(L60="L",5,IF(L60="A",7,10)),IF(G60="SE",IF(L60="L",4,IF(L60="A",5,7)),IF(OR(G60="EE",G60="CE"),IF(L60="L",3,IF(L60="A",4,6)))))))</f>
+        <v>5</v>
       </c>
       <c r="O60" s="37">
         <f>IF(H60="I",N60*Contagem!$U$11,IF(H60="E",N60*Contagem!$U$13,IF(H60="A",N60*Contagem!$U$12,IF(H60="T",N60*Contagem!$U$14,""))))</f>
-        <v>7</v>
-      </c>
-      <c r="P60" s="110"/>
-      <c r="Q60" s="111"/>
-      <c r="R60" s="111"/>
-      <c r="S60" s="111"/>
-      <c r="T60" s="111"/>
-    </row>
-    <row r="61" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="P60" s="84"/>
+      <c r="Q60" s="85"/>
+      <c r="R60" s="85"/>
+      <c r="S60" s="85"/>
+      <c r="T60" s="85"/>
+    </row>
+    <row r="61" spans="1:20" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A61" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="87"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="88"/>
       <c r="G61" s="65" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H61" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I61" s="26">
-        <v>2</v>
-      </c>
-      <c r="J61" s="26">
-        <v>3</v>
-      </c>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
       <c r="K61" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>EEA</v>
+        <f t="shared" si="27"/>
+        <v>SEA</v>
       </c>
       <c r="L61" s="29" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>A</v>
       </c>
       <c r="M61" s="32" t="str">
-        <f t="shared" ref="M61:M76" si="23">IF(L61="L","Baixa",IF(L61="A","Média",IF(L61="","","Alta")))</f>
+        <f t="shared" si="29"/>
         <v>Média</v>
       </c>
       <c r="N61" s="36">
-        <f t="shared" si="22"/>
-        <v>4</v>
+        <f t="shared" si="30"/>
+        <v>5</v>
       </c>
       <c r="O61" s="37">
         <f>IF(H61="I",N61*Contagem!$U$11,IF(H61="E",N61*Contagem!$U$13,IF(H61="A",N61*Contagem!$U$12,IF(H61="T",N61*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P61" s="110"/>
-      <c r="Q61" s="111"/>
-      <c r="R61" s="111"/>
-      <c r="S61" s="111"/>
-      <c r="T61" s="111"/>
-    </row>
-    <row r="62" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="P61" s="84"/>
+      <c r="Q61" s="85"/>
+      <c r="R61" s="85"/>
+      <c r="S61" s="85"/>
+      <c r="T61" s="85"/>
+    </row>
+    <row r="62" spans="1:20" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="A62" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="87"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="87"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="88"/>
       <c r="G62" s="65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H62" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I62" s="26">
-        <v>2</v>
-      </c>
-      <c r="J62" s="26">
-        <v>3</v>
-      </c>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
       <c r="K62" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>EEA</v>
+        <f t="shared" si="27"/>
+        <v>ALIL</v>
       </c>
       <c r="L62" s="29" t="str">
-        <f t="shared" si="21"/>
-        <v>A</v>
+        <f t="shared" si="28"/>
+        <v>L</v>
       </c>
       <c r="M62" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>Média</v>
+        <f t="shared" si="29"/>
+        <v>Baixa</v>
       </c>
       <c r="N62" s="36">
-        <f t="shared" si="22"/>
-        <v>4</v>
+        <f t="shared" si="30"/>
+        <v>7</v>
       </c>
       <c r="O62" s="37">
         <f>IF(H62="I",N62*Contagem!$U$11,IF(H62="E",N62*Contagem!$U$13,IF(H62="A",N62*Contagem!$U$12,IF(H62="T",N62*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P62" s="110"/>
-      <c r="Q62" s="111"/>
-      <c r="R62" s="111"/>
-      <c r="S62" s="111"/>
-      <c r="T62" s="111"/>
-    </row>
-    <row r="63" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="67" t="s">
-        <v>75</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="P62" s="84"/>
+      <c r="Q62" s="85"/>
+      <c r="R62" s="85"/>
+      <c r="S62" s="85"/>
+      <c r="T62" s="85"/>
+    </row>
+    <row r="63" spans="1:20" ht="18" customHeight="1">
+      <c r="A63" s="64"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
       <c r="F63" s="19"/>
-      <c r="G63" s="65" t="s">
-        <v>30</v>
-      </c>
+      <c r="G63" s="26"/>
       <c r="H63" s="24" t="s">
         <v>36</v>
       </c>
@@ -8930,162 +9490,173 @@
       <c r="J63" s="26"/>
       <c r="K63" s="26" t="str">
         <f t="shared" si="20"/>
-        <v>EEA</v>
+        <v/>
       </c>
       <c r="L63" s="29" t="str">
         <f t="shared" si="21"/>
-        <v>A</v>
+        <v/>
       </c>
       <c r="M63" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>Média</v>
-      </c>
-      <c r="N63" s="36">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="N63" s="36" t="str">
         <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="O63" s="37">
+        <v/>
+      </c>
+      <c r="O63" s="37" t="e">
         <f>IF(H63="I",N63*Contagem!$U$11,IF(H63="E",N63*Contagem!$U$13,IF(H63="A",N63*Contagem!$U$12,IF(H63="T",N63*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P63" s="110"/>
-      <c r="Q63" s="111"/>
-      <c r="R63" s="111"/>
-      <c r="S63" s="111"/>
-      <c r="T63" s="111"/>
-    </row>
-    <row r="64" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P63" s="113"/>
+      <c r="Q63" s="114"/>
+      <c r="R63" s="114"/>
+      <c r="S63" s="114"/>
+      <c r="T63" s="114"/>
+    </row>
+    <row r="64" spans="1:20" ht="18" customHeight="1">
+      <c r="A64" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="70"/>
       <c r="G64" s="65" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H64" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
+      <c r="I64" s="26">
+        <v>2</v>
+      </c>
+      <c r="J64" s="26">
+        <v>3</v>
+      </c>
       <c r="K64" s="26" t="str">
         <f t="shared" si="20"/>
-        <v>CEA</v>
+        <v>ALIL</v>
       </c>
       <c r="L64" s="29" t="str">
         <f t="shared" si="21"/>
-        <v>A</v>
-      </c>
-      <c r="M64" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>Média</v>
+        <v>L</v>
+      </c>
+      <c r="M64" s="66" t="s">
+        <v>40</v>
       </c>
       <c r="N64" s="36">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O64" s="37">
         <f>IF(H64="I",N64*Contagem!$U$11,IF(H64="E",N64*Contagem!$U$13,IF(H64="A",N64*Contagem!$U$12,IF(H64="T",N64*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P64" s="110"/>
-      <c r="Q64" s="111"/>
-      <c r="R64" s="111"/>
-      <c r="S64" s="111"/>
-      <c r="T64" s="111"/>
-    </row>
-    <row r="65" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="64"/>
+        <v>7</v>
+      </c>
+      <c r="P64" s="113"/>
+      <c r="Q64" s="114"/>
+      <c r="R64" s="114"/>
+      <c r="S64" s="114"/>
+      <c r="T64" s="114"/>
+    </row>
+    <row r="65" spans="1:20" ht="18" customHeight="1">
+      <c r="A65" s="67" t="s">
+        <v>78</v>
+      </c>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
       <c r="F65" s="19"/>
-      <c r="G65" s="26"/>
+      <c r="G65" s="65" t="s">
+        <v>30</v>
+      </c>
       <c r="H65" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
+      <c r="I65" s="26">
+        <v>2</v>
+      </c>
+      <c r="J65" s="26">
+        <v>3</v>
+      </c>
       <c r="K65" s="26" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>EEA</v>
       </c>
       <c r="L65" s="29" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M65" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="N65" s="36" t="str">
+        <f t="shared" ref="M65:M80" si="31">IF(L65="L","Baixa",IF(L65="A","Média",IF(L65="","","Alta")))</f>
+        <v>Média</v>
+      </c>
+      <c r="N65" s="36">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="O65" s="37" t="e">
+        <v>4</v>
+      </c>
+      <c r="O65" s="37">
         <f>IF(H65="I",N65*Contagem!$U$11,IF(H65="E",N65*Contagem!$U$13,IF(H65="A",N65*Contagem!$U$12,IF(H65="T",N65*Contagem!$U$14,""))))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P65" s="110"/>
-      <c r="Q65" s="111"/>
-      <c r="R65" s="111"/>
-      <c r="S65" s="111"/>
-      <c r="T65" s="111"/>
-    </row>
-    <row r="66" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66" s="69"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="70"/>
+        <v>4</v>
+      </c>
+      <c r="P65" s="113"/>
+      <c r="Q65" s="114"/>
+      <c r="R65" s="114"/>
+      <c r="S65" s="114"/>
+      <c r="T65" s="114"/>
+    </row>
+    <row r="66" spans="1:20" ht="18" customHeight="1">
+      <c r="A66" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="19"/>
       <c r="G66" s="65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H66" s="24" t="s">
         <v>36</v>
       </c>
       <c r="I66" s="26">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J66" s="26">
         <v>3</v>
       </c>
       <c r="K66" s="26" t="str">
         <f t="shared" si="20"/>
-        <v>ALIA</v>
+        <v>EEA</v>
       </c>
       <c r="L66" s="29" t="str">
         <f t="shared" si="21"/>
         <v>A</v>
       </c>
       <c r="M66" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>Média</v>
       </c>
       <c r="N66" s="36">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O66" s="37">
         <f>IF(H66="I",N66*Contagem!$U$11,IF(H66="E",N66*Contagem!$U$13,IF(H66="A",N66*Contagem!$U$12,IF(H66="T",N66*Contagem!$U$14,""))))</f>
-        <v>10</v>
-      </c>
-      <c r="P66" s="110"/>
-      <c r="Q66" s="111"/>
-      <c r="R66" s="111"/>
-      <c r="S66" s="111"/>
-      <c r="T66" s="111"/>
-    </row>
-    <row r="67" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P66" s="113"/>
+      <c r="Q66" s="114"/>
+      <c r="R66" s="114"/>
+      <c r="S66" s="114"/>
+      <c r="T66" s="114"/>
+    </row>
+    <row r="67" spans="1:20" ht="18" customHeight="1">
       <c r="A67" s="67" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -9098,41 +9669,37 @@
       <c r="H67" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I67" s="26">
-        <v>20</v>
-      </c>
-      <c r="J67" s="26">
-        <v>3</v>
-      </c>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
       <c r="K67" s="26" t="str">
         <f t="shared" si="20"/>
-        <v>EEH</v>
+        <v>EEA</v>
       </c>
       <c r="L67" s="29" t="str">
         <f t="shared" si="21"/>
-        <v>H</v>
+        <v>A</v>
       </c>
       <c r="M67" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>Alta</v>
+        <f t="shared" si="31"/>
+        <v>Média</v>
       </c>
       <c r="N67" s="36">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O67" s="37">
         <f>IF(H67="I",N67*Contagem!$U$11,IF(H67="E",N67*Contagem!$U$13,IF(H67="A",N67*Contagem!$U$12,IF(H67="T",N67*Contagem!$U$14,""))))</f>
-        <v>6</v>
-      </c>
-      <c r="P67" s="110"/>
-      <c r="Q67" s="111"/>
-      <c r="R67" s="111"/>
-      <c r="S67" s="111"/>
-      <c r="T67" s="111"/>
-    </row>
-    <row r="68" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P67" s="113"/>
+      <c r="Q67" s="114"/>
+      <c r="R67" s="114"/>
+      <c r="S67" s="114"/>
+      <c r="T67" s="114"/>
+    </row>
+    <row r="68" spans="1:20" ht="18" customHeight="1">
       <c r="A68" s="67" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -9140,55 +9707,47 @@
       <c r="E68" s="17"/>
       <c r="F68" s="19"/>
       <c r="G68" s="65" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H68" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="26">
-        <v>20</v>
-      </c>
-      <c r="J68" s="26">
-        <v>3</v>
-      </c>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
       <c r="K68" s="26" t="str">
         <f t="shared" si="20"/>
-        <v>EEH</v>
+        <v>CEA</v>
       </c>
       <c r="L68" s="29" t="str">
         <f t="shared" si="21"/>
-        <v>H</v>
+        <v>A</v>
       </c>
       <c r="M68" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>Alta</v>
+        <f t="shared" si="31"/>
+        <v>Média</v>
       </c>
       <c r="N68" s="36">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O68" s="37">
         <f>IF(H68="I",N68*Contagem!$U$11,IF(H68="E",N68*Contagem!$U$13,IF(H68="A",N68*Contagem!$U$12,IF(H68="T",N68*Contagem!$U$14,""))))</f>
-        <v>6</v>
-      </c>
-      <c r="P68" s="110"/>
-      <c r="Q68" s="111"/>
-      <c r="R68" s="111"/>
-      <c r="S68" s="111"/>
-      <c r="T68" s="111"/>
-    </row>
-    <row r="69" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="67" t="s">
-        <v>75</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P68" s="113"/>
+      <c r="Q68" s="114"/>
+      <c r="R68" s="114"/>
+      <c r="S68" s="114"/>
+      <c r="T68" s="114"/>
+    </row>
+    <row r="69" spans="1:20" ht="18" customHeight="1">
+      <c r="A69" s="64"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
       <c r="F69" s="19"/>
-      <c r="G69" s="65" t="s">
-        <v>30</v>
-      </c>
+      <c r="G69" s="26"/>
       <c r="H69" s="24" t="s">
         <v>36</v>
       </c>
@@ -9196,76 +9755,80 @@
       <c r="J69" s="26"/>
       <c r="K69" s="26" t="str">
         <f t="shared" si="20"/>
-        <v>EEA</v>
+        <v/>
       </c>
       <c r="L69" s="29" t="str">
         <f t="shared" si="21"/>
-        <v>A</v>
+        <v/>
       </c>
       <c r="M69" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>Média</v>
-      </c>
-      <c r="N69" s="36">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="N69" s="36" t="str">
         <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="O69" s="37">
+        <v/>
+      </c>
+      <c r="O69" s="37" t="e">
         <f>IF(H69="I",N69*Contagem!$U$11,IF(H69="E",N69*Contagem!$U$13,IF(H69="A",N69*Contagem!$U$12,IF(H69="T",N69*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P69" s="110"/>
-      <c r="Q69" s="111"/>
-      <c r="R69" s="111"/>
-      <c r="S69" s="111"/>
-      <c r="T69" s="111"/>
-    </row>
-    <row r="70" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P69" s="113"/>
+      <c r="Q69" s="114"/>
+      <c r="R69" s="114"/>
+      <c r="S69" s="114"/>
+      <c r="T69" s="114"/>
+    </row>
+    <row r="70" spans="1:20" ht="18" customHeight="1">
+      <c r="A70" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="70"/>
       <c r="G70" s="65" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H70" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
+      <c r="I70" s="26">
+        <v>20</v>
+      </c>
+      <c r="J70" s="26">
+        <v>3</v>
+      </c>
       <c r="K70" s="26" t="str">
         <f t="shared" si="20"/>
-        <v>CEA</v>
+        <v>ALIA</v>
       </c>
       <c r="L70" s="29" t="str">
         <f t="shared" si="21"/>
         <v>A</v>
       </c>
       <c r="M70" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>Média</v>
       </c>
       <c r="N70" s="36">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O70" s="37">
         <f>IF(H70="I",N70*Contagem!$U$11,IF(H70="E",N70*Contagem!$U$13,IF(H70="A",N70*Contagem!$U$12,IF(H70="T",N70*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P70" s="110"/>
-      <c r="Q70" s="111"/>
-      <c r="R70" s="111"/>
-      <c r="S70" s="111"/>
-      <c r="T70" s="111"/>
-    </row>
-    <row r="71" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="P70" s="113"/>
+      <c r="Q70" s="114"/>
+      <c r="R70" s="114"/>
+      <c r="S70" s="114"/>
+      <c r="T70" s="114"/>
+    </row>
+    <row r="71" spans="1:20" ht="18" customHeight="1">
       <c r="A71" s="67" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -9278,37 +9841,41 @@
       <c r="H71" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
+      <c r="I71" s="26">
+        <v>20</v>
+      </c>
+      <c r="J71" s="26">
+        <v>3</v>
+      </c>
       <c r="K71" s="26" t="str">
         <f t="shared" si="20"/>
-        <v>EEA</v>
+        <v>EEH</v>
       </c>
       <c r="L71" s="29" t="str">
         <f t="shared" si="21"/>
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="M71" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>Média</v>
+        <f t="shared" si="31"/>
+        <v>Alta</v>
       </c>
       <c r="N71" s="36">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O71" s="37">
         <f>IF(H71="I",N71*Contagem!$U$11,IF(H71="E",N71*Contagem!$U$13,IF(H71="A",N71*Contagem!$U$12,IF(H71="T",N71*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P71" s="110"/>
-      <c r="Q71" s="111"/>
-      <c r="R71" s="111"/>
-      <c r="S71" s="111"/>
-      <c r="T71" s="111"/>
-    </row>
-    <row r="72" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="P71" s="113"/>
+      <c r="Q71" s="114"/>
+      <c r="R71" s="114"/>
+      <c r="S71" s="114"/>
+      <c r="T71" s="114"/>
+    </row>
+    <row r="72" spans="1:20" ht="18" customHeight="1">
       <c r="A72" s="67" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -9321,37 +9888,41 @@
       <c r="H72" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
+      <c r="I72" s="26">
+        <v>20</v>
+      </c>
+      <c r="J72" s="26">
+        <v>3</v>
+      </c>
       <c r="K72" s="26" t="str">
         <f t="shared" si="20"/>
-        <v>EEA</v>
+        <v>EEH</v>
       </c>
       <c r="L72" s="29" t="str">
         <f t="shared" si="21"/>
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="M72" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>Média</v>
+        <f t="shared" si="31"/>
+        <v>Alta</v>
       </c>
       <c r="N72" s="36">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O72" s="37">
         <f>IF(H72="I",N72*Contagem!$U$11,IF(H72="E",N72*Contagem!$U$13,IF(H72="A",N72*Contagem!$U$12,IF(H72="T",N72*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P72" s="110"/>
-      <c r="Q72" s="111"/>
-      <c r="R72" s="111"/>
-      <c r="S72" s="111"/>
-      <c r="T72" s="111"/>
-    </row>
-    <row r="73" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="P72" s="113"/>
+      <c r="Q72" s="114"/>
+      <c r="R72" s="114"/>
+      <c r="S72" s="114"/>
+      <c r="T72" s="114"/>
+    </row>
+    <row r="73" spans="1:20" ht="18" customHeight="1">
       <c r="A73" s="67" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -9375,7 +9946,7 @@
         <v>A</v>
       </c>
       <c r="M73" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>Média</v>
       </c>
       <c r="N73" s="36">
@@ -9386,15 +9957,15 @@
         <f>IF(H73="I",N73*Contagem!$U$11,IF(H73="E",N73*Contagem!$U$13,IF(H73="A",N73*Contagem!$U$12,IF(H73="T",N73*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P73" s="110"/>
-      <c r="Q73" s="111"/>
-      <c r="R73" s="111"/>
-      <c r="S73" s="111"/>
-      <c r="T73" s="111"/>
-    </row>
-    <row r="74" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P73" s="113"/>
+      <c r="Q73" s="114"/>
+      <c r="R73" s="114"/>
+      <c r="S73" s="114"/>
+      <c r="T73" s="114"/>
+    </row>
+    <row r="74" spans="1:20" ht="18" customHeight="1">
       <c r="A74" s="67" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -9418,7 +9989,7 @@
         <v>A</v>
       </c>
       <c r="M74" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>Média</v>
       </c>
       <c r="N74" s="36">
@@ -9429,324 +10000,232 @@
         <f>IF(H74="I",N74*Contagem!$U$11,IF(H74="E",N74*Contagem!$U$13,IF(H74="A",N74*Contagem!$U$12,IF(H74="T",N74*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P74" s="110"/>
-      <c r="Q74" s="111"/>
-      <c r="R74" s="111"/>
-      <c r="S74" s="111"/>
-      <c r="T74" s="111"/>
-    </row>
-    <row r="75" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="67" t="s">
-        <v>97</v>
-      </c>
+      <c r="P74" s="113"/>
+      <c r="Q74" s="114"/>
+      <c r="R74" s="114"/>
+      <c r="S74" s="114"/>
+      <c r="T74" s="114"/>
+    </row>
+    <row r="75" spans="1:20" ht="18" customHeight="1">
+      <c r="A75" s="67"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
       <c r="F75" s="19"/>
-      <c r="G75" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="H75" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="G75" s="65"/>
+      <c r="H75" s="24"/>
       <c r="I75" s="26"/>
       <c r="J75" s="26"/>
-      <c r="K75" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>CEA</v>
-      </c>
-      <c r="L75" s="29" t="str">
-        <f t="shared" si="21"/>
-        <v>A</v>
-      </c>
-      <c r="M75" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>Média</v>
-      </c>
-      <c r="N75" s="36">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="O75" s="37">
-        <f>IF(H75="I",N75*Contagem!$U$11,IF(H75="E",N75*Contagem!$U$13,IF(H75="A",N75*Contagem!$U$12,IF(H75="T",N75*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P75" s="110"/>
-      <c r="Q75" s="111"/>
-      <c r="R75" s="111"/>
-      <c r="S75" s="111"/>
-      <c r="T75" s="111"/>
-    </row>
-    <row r="76" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="64"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="32"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="113"/>
+      <c r="Q75" s="114"/>
+      <c r="R75" s="114"/>
+      <c r="S75" s="114"/>
+      <c r="T75" s="114"/>
+    </row>
+    <row r="76" spans="1:20" ht="18" customHeight="1">
+      <c r="A76" s="67"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
       <c r="F76" s="19"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="G76" s="65"/>
+      <c r="H76" s="24"/>
       <c r="I76" s="26"/>
       <c r="J76" s="26"/>
-      <c r="K76" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L76" s="29" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="M76" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="N76" s="36" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="O76" s="37" t="e">
-        <f>IF(H76="I",N76*Contagem!$U$11,IF(H76="E",N76*Contagem!$U$13,IF(H76="A",N76*Contagem!$U$12,IF(H76="T",N76*Contagem!$U$14,""))))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P76" s="110"/>
-      <c r="Q76" s="111"/>
-      <c r="R76" s="111"/>
-      <c r="S76" s="111"/>
-      <c r="T76" s="111"/>
-    </row>
-    <row r="77" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="B77" s="81"/>
-      <c r="C77" s="81"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="81"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H77" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I77" s="26">
-        <v>20</v>
-      </c>
-      <c r="J77" s="26">
-        <v>3</v>
-      </c>
-      <c r="K77" s="26" t="str">
-        <f t="shared" ref="K77:K83" si="24">CONCATENATE(G77,L77)</f>
-        <v>ALIA</v>
-      </c>
-      <c r="L77" s="29" t="str">
-        <f t="shared" ref="L77:L83" si="25">IF(OR(ISBLANK(I77),ISBLANK(J77)),IF(OR(G77="ALI",G77="AIE"),"L",IF(ISBLANK(G77),"","A")),IF(G77="EE",IF(J77&gt;=3,IF(I77&gt;=5,"H","A"),IF(J77&gt;=2,IF(I77&gt;=16,"H",IF(I77&lt;=4,"L","A")),IF(I77&lt;=15,"L","A"))),IF(OR(G77="SE",G77="CE"),IF(J77&gt;=4,IF(I77&gt;=6,"H","A"),IF(J77&gt;=2,IF(I77&gt;=20,"H",IF(I77&lt;=5,"L","A")),IF(I77&lt;=19,"L","A"))),IF(OR(G77="ALI",G77="AIE"),IF(J77&gt;=6,IF(I77&gt;=20,"H","A"),IF(J77&gt;=2,IF(I77&gt;=51,"H",IF(I77&lt;=19,"L","A")),IF(I77&lt;=50,"L","A")))))))</f>
-        <v>A</v>
-      </c>
-      <c r="M77" s="32" t="str">
-        <f t="shared" ref="M77:M83" si="26">IF(L77="L","Baixa",IF(L77="A","Média",IF(L77="","","Alta")))</f>
-        <v>Média</v>
-      </c>
-      <c r="N77" s="36">
-        <f t="shared" ref="N77:N83" si="27">IF(ISBLANK(G77),"",IF(G77="ALI",IF(L77="L",7,IF(L77="A",10,15)),IF(G77="AIE",IF(L77="L",5,IF(L77="A",7,10)),IF(G77="SE",IF(L77="L",4,IF(L77="A",5,7)),IF(OR(G77="EE",G77="CE"),IF(L77="L",3,IF(L77="A",4,6)))))))</f>
-        <v>10</v>
-      </c>
-      <c r="O77" s="37">
-        <f>IF(H77="I",N77*Contagem!$U$11,IF(H77="E",N77*Contagem!$U$13,IF(H77="A",N77*Contagem!$U$12,IF(H77="T",N77*Contagem!$U$14,""))))</f>
-        <v>10</v>
-      </c>
-      <c r="P77" s="110"/>
-      <c r="Q77" s="111"/>
-      <c r="R77" s="111"/>
-      <c r="S77" s="111"/>
-      <c r="T77" s="111"/>
-    </row>
-    <row r="78" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="77"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="78"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="32"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="113"/>
+      <c r="Q76" s="114"/>
+      <c r="R76" s="114"/>
+      <c r="S76" s="114"/>
+      <c r="T76" s="114"/>
+    </row>
+    <row r="77" spans="1:20" ht="18" customHeight="1">
+      <c r="A77" s="67"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="32"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="113"/>
+      <c r="Q77" s="114"/>
+      <c r="R77" s="114"/>
+      <c r="S77" s="114"/>
+      <c r="T77" s="114"/>
+    </row>
+    <row r="78" spans="1:20" ht="18" customHeight="1">
+      <c r="A78" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="19"/>
       <c r="G78" s="65" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H78" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I78" s="26">
-        <v>20</v>
-      </c>
-      <c r="J78" s="26">
-        <v>3</v>
-      </c>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
       <c r="K78" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>EEH</v>
+        <f t="shared" si="20"/>
+        <v>CEA</v>
       </c>
       <c r="L78" s="29" t="str">
-        <f t="shared" si="25"/>
-        <v>H</v>
+        <f t="shared" si="21"/>
+        <v>A</v>
       </c>
       <c r="M78" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>Alta</v>
+        <f t="shared" si="31"/>
+        <v>Média</v>
       </c>
       <c r="N78" s="36">
-        <f t="shared" si="27"/>
-        <v>6</v>
+        <f t="shared" si="22"/>
+        <v>4</v>
       </c>
       <c r="O78" s="37">
         <f>IF(H78="I",N78*Contagem!$U$11,IF(H78="E",N78*Contagem!$U$13,IF(H78="A",N78*Contagem!$U$12,IF(H78="T",N78*Contagem!$U$14,""))))</f>
-        <v>6</v>
-      </c>
-      <c r="P78" s="110"/>
-      <c r="Q78" s="111"/>
-      <c r="R78" s="111"/>
-      <c r="S78" s="111"/>
-      <c r="T78" s="111"/>
-    </row>
-    <row r="79" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" s="77"/>
-      <c r="C79" s="77"/>
-      <c r="D79" s="77"/>
-      <c r="E79" s="77"/>
-      <c r="F79" s="78"/>
-      <c r="G79" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I79" s="26">
-        <v>20</v>
-      </c>
-      <c r="J79" s="26">
-        <v>3</v>
-      </c>
-      <c r="K79" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>EEH</v>
-      </c>
-      <c r="L79" s="29" t="str">
-        <f t="shared" si="25"/>
-        <v>H</v>
-      </c>
-      <c r="M79" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>Alta</v>
-      </c>
-      <c r="N79" s="36">
-        <f t="shared" si="27"/>
-        <v>6</v>
-      </c>
-      <c r="O79" s="37">
-        <f>IF(H79="I",N79*Contagem!$U$11,IF(H79="E",N79*Contagem!$U$13,IF(H79="A",N79*Contagem!$U$12,IF(H79="T",N79*Contagem!$U$14,""))))</f>
-        <v>6</v>
-      </c>
-      <c r="P79" s="110"/>
-      <c r="Q79" s="111"/>
-      <c r="R79" s="111"/>
-      <c r="S79" s="111"/>
-      <c r="T79" s="111"/>
-    </row>
-    <row r="80" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="B80" s="77"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="77"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="65" t="s">
-        <v>30</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P78" s="113"/>
+      <c r="Q78" s="114"/>
+      <c r="R78" s="114"/>
+      <c r="S78" s="114"/>
+      <c r="T78" s="114"/>
+    </row>
+    <row r="79" spans="1:20" ht="18" customHeight="1">
+      <c r="A79" s="67"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="65"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="32"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="113"/>
+      <c r="Q79" s="114"/>
+      <c r="R79" s="114"/>
+      <c r="S79" s="114"/>
+      <c r="T79" s="114"/>
+    </row>
+    <row r="80" spans="1:20" ht="18" customHeight="1">
+      <c r="A80" s="64"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="26"/>
       <c r="H80" s="24" t="s">
         <v>36</v>
       </c>
       <c r="I80" s="26"/>
       <c r="J80" s="26"/>
       <c r="K80" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>EEA</v>
+        <f t="shared" si="20"/>
+        <v/>
       </c>
       <c r="L80" s="29" t="str">
-        <f t="shared" si="25"/>
-        <v>A</v>
+        <f t="shared" si="21"/>
+        <v/>
       </c>
       <c r="M80" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>Média</v>
-      </c>
-      <c r="N80" s="36">
-        <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="O80" s="37">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="N80" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O80" s="37" t="e">
         <f>IF(H80="I",N80*Contagem!$U$11,IF(H80="E",N80*Contagem!$U$13,IF(H80="A",N80*Contagem!$U$12,IF(H80="T",N80*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P80" s="110"/>
-      <c r="Q80" s="111"/>
-      <c r="R80" s="111"/>
-      <c r="S80" s="111"/>
-      <c r="T80" s="111"/>
-    </row>
-    <row r="81" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="B81" s="77"/>
-      <c r="C81" s="77"/>
-      <c r="D81" s="77"/>
-      <c r="E81" s="77"/>
-      <c r="F81" s="78"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P80" s="113"/>
+      <c r="Q80" s="114"/>
+      <c r="R80" s="114"/>
+      <c r="S80" s="114"/>
+      <c r="T80" s="114"/>
+    </row>
+    <row r="81" spans="1:20" ht="18" customHeight="1">
+      <c r="A81" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="81"/>
+      <c r="C81" s="81"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="82"/>
       <c r="G81" s="65" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H81" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
+      <c r="I81" s="26">
+        <v>20</v>
+      </c>
+      <c r="J81" s="26">
+        <v>3</v>
+      </c>
       <c r="K81" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>CEA</v>
+        <f t="shared" ref="K81:K87" si="32">CONCATENATE(G81,L81)</f>
+        <v>ALIA</v>
       </c>
       <c r="L81" s="29" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="L81:L87" si="33">IF(OR(ISBLANK(I81),ISBLANK(J81)),IF(OR(G81="ALI",G81="AIE"),"L",IF(ISBLANK(G81),"","A")),IF(G81="EE",IF(J81&gt;=3,IF(I81&gt;=5,"H","A"),IF(J81&gt;=2,IF(I81&gt;=16,"H",IF(I81&lt;=4,"L","A")),IF(I81&lt;=15,"L","A"))),IF(OR(G81="SE",G81="CE"),IF(J81&gt;=4,IF(I81&gt;=6,"H","A"),IF(J81&gt;=2,IF(I81&gt;=20,"H",IF(I81&lt;=5,"L","A")),IF(I81&lt;=19,"L","A"))),IF(OR(G81="ALI",G81="AIE"),IF(J81&gt;=6,IF(I81&gt;=20,"H","A"),IF(J81&gt;=2,IF(I81&gt;=51,"H",IF(I81&lt;=19,"L","A")),IF(I81&lt;=50,"L","A")))))))</f>
         <v>A</v>
       </c>
       <c r="M81" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="M81:M87" si="34">IF(L81="L","Baixa",IF(L81="A","Média",IF(L81="","","Alta")))</f>
         <v>Média</v>
       </c>
       <c r="N81" s="36">
-        <f t="shared" si="27"/>
-        <v>4</v>
+        <f t="shared" ref="N81:N87" si="35">IF(ISBLANK(G81),"",IF(G81="ALI",IF(L81="L",7,IF(L81="A",10,15)),IF(G81="AIE",IF(L81="L",5,IF(L81="A",7,10)),IF(G81="SE",IF(L81="L",4,IF(L81="A",5,7)),IF(OR(G81="EE",G81="CE"),IF(L81="L",3,IF(L81="A",4,6)))))))</f>
+        <v>10</v>
       </c>
       <c r="O81" s="37">
         <f>IF(H81="I",N81*Contagem!$U$11,IF(H81="E",N81*Contagem!$U$13,IF(H81="A",N81*Contagem!$U$12,IF(H81="T",N81*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P81" s="110"/>
-      <c r="Q81" s="111"/>
-      <c r="R81" s="111"/>
-      <c r="S81" s="111"/>
-      <c r="T81" s="111"/>
-    </row>
-    <row r="82" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="P81" s="113"/>
+      <c r="Q81" s="114"/>
+      <c r="R81" s="114"/>
+      <c r="S81" s="114"/>
+      <c r="T81" s="114"/>
+    </row>
+    <row r="82" spans="1:20" ht="18" customHeight="1">
       <c r="A82" s="79" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B82" s="77"/>
       <c r="C82" s="77"/>
@@ -9759,37 +10238,41 @@
       <c r="H82" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
+      <c r="I82" s="26">
+        <v>20</v>
+      </c>
+      <c r="J82" s="26">
+        <v>3</v>
+      </c>
       <c r="K82" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>EEA</v>
+        <f t="shared" si="32"/>
+        <v>EEH</v>
       </c>
       <c r="L82" s="29" t="str">
-        <f t="shared" si="25"/>
-        <v>A</v>
+        <f t="shared" si="33"/>
+        <v>H</v>
       </c>
       <c r="M82" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>Média</v>
+        <f t="shared" si="34"/>
+        <v>Alta</v>
       </c>
       <c r="N82" s="36">
-        <f t="shared" si="27"/>
-        <v>4</v>
+        <f t="shared" si="35"/>
+        <v>6</v>
       </c>
       <c r="O82" s="37">
         <f>IF(H82="I",N82*Contagem!$U$11,IF(H82="E",N82*Contagem!$U$13,IF(H82="A",N82*Contagem!$U$12,IF(H82="T",N82*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P82" s="110"/>
-      <c r="Q82" s="111"/>
-      <c r="R82" s="111"/>
-      <c r="S82" s="111"/>
-      <c r="T82" s="111"/>
-    </row>
-    <row r="83" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="P82" s="113"/>
+      <c r="Q82" s="114"/>
+      <c r="R82" s="114"/>
+      <c r="S82" s="114"/>
+      <c r="T82" s="114"/>
+    </row>
+    <row r="83" spans="1:20" ht="18" customHeight="1">
       <c r="A83" s="79" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B83" s="77"/>
       <c r="C83" s="77"/>
@@ -9797,113 +10280,132 @@
       <c r="E83" s="77"/>
       <c r="F83" s="78"/>
       <c r="G83" s="65" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H83" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
+      <c r="I83" s="26">
+        <v>20</v>
+      </c>
+      <c r="J83" s="26">
+        <v>3</v>
+      </c>
       <c r="K83" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>CEA</v>
+        <f t="shared" si="32"/>
+        <v>EEH</v>
       </c>
       <c r="L83" s="29" t="str">
-        <f t="shared" si="25"/>
-        <v>A</v>
+        <f t="shared" si="33"/>
+        <v>H</v>
       </c>
       <c r="M83" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>Média</v>
+        <f t="shared" si="34"/>
+        <v>Alta</v>
       </c>
       <c r="N83" s="36">
-        <f t="shared" si="27"/>
-        <v>4</v>
+        <f t="shared" si="35"/>
+        <v>6</v>
       </c>
       <c r="O83" s="37">
         <f>IF(H83="I",N83*Contagem!$U$11,IF(H83="E",N83*Contagem!$U$13,IF(H83="A",N83*Contagem!$U$12,IF(H83="T",N83*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P83" s="110"/>
-      <c r="Q83" s="111"/>
-      <c r="R83" s="111"/>
-      <c r="S83" s="111"/>
-      <c r="T83" s="111"/>
-    </row>
-    <row r="84" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="79"/>
+        <v>6</v>
+      </c>
+      <c r="P83" s="113"/>
+      <c r="Q83" s="114"/>
+      <c r="R83" s="114"/>
+      <c r="S83" s="114"/>
+      <c r="T83" s="114"/>
+    </row>
+    <row r="84" spans="1:20" ht="18" customHeight="1">
+      <c r="A84" s="79" t="s">
+        <v>75</v>
+      </c>
       <c r="B84" s="77"/>
       <c r="C84" s="77"/>
       <c r="D84" s="77"/>
       <c r="E84" s="77"/>
       <c r="F84" s="78"/>
-      <c r="G84" s="65"/>
+      <c r="G84" s="65" t="s">
+        <v>30</v>
+      </c>
       <c r="H84" s="24" t="s">
         <v>36</v>
       </c>
       <c r="I84" s="26"/>
       <c r="J84" s="26"/>
-      <c r="K84" s="26"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="37"/>
-      <c r="P84" s="110"/>
-      <c r="Q84" s="111"/>
-      <c r="R84" s="111"/>
-      <c r="S84" s="111"/>
-      <c r="T84" s="111"/>
-    </row>
-    <row r="85" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="B85" s="81"/>
-      <c r="C85" s="81"/>
-      <c r="D85" s="81"/>
-      <c r="E85" s="81"/>
-      <c r="F85" s="82"/>
+      <c r="K84" s="26" t="str">
+        <f t="shared" si="32"/>
+        <v>EEA</v>
+      </c>
+      <c r="L84" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v>A</v>
+      </c>
+      <c r="M84" s="32" t="str">
+        <f t="shared" si="34"/>
+        <v>Média</v>
+      </c>
+      <c r="N84" s="36">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="O84" s="37">
+        <f>IF(H84="I",N84*Contagem!$U$11,IF(H84="E",N84*Contagem!$U$13,IF(H84="A",N84*Contagem!$U$12,IF(H84="T",N84*Contagem!$U$14,""))))</f>
+        <v>4</v>
+      </c>
+      <c r="P84" s="113"/>
+      <c r="Q84" s="114"/>
+      <c r="R84" s="114"/>
+      <c r="S84" s="114"/>
+      <c r="T84" s="114"/>
+    </row>
+    <row r="85" spans="1:20" ht="18" customHeight="1">
+      <c r="A85" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="77"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="78"/>
       <c r="G85" s="65" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H85" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I85" s="26">
-        <v>20</v>
-      </c>
-      <c r="J85" s="26">
-        <v>3</v>
-      </c>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
       <c r="K85" s="26" t="str">
-        <f t="shared" ref="K85:K91" si="28">CONCATENATE(G85,L85)</f>
-        <v>ALIA</v>
+        <f t="shared" si="32"/>
+        <v>CEA</v>
       </c>
       <c r="L85" s="29" t="str">
-        <f t="shared" ref="L85:L91" si="29">IF(OR(ISBLANK(I85),ISBLANK(J85)),IF(OR(G85="ALI",G85="AIE"),"L",IF(ISBLANK(G85),"","A")),IF(G85="EE",IF(J85&gt;=3,IF(I85&gt;=5,"H","A"),IF(J85&gt;=2,IF(I85&gt;=16,"H",IF(I85&lt;=4,"L","A")),IF(I85&lt;=15,"L","A"))),IF(OR(G85="SE",G85="CE"),IF(J85&gt;=4,IF(I85&gt;=6,"H","A"),IF(J85&gt;=2,IF(I85&gt;=20,"H",IF(I85&lt;=5,"L","A")),IF(I85&lt;=19,"L","A"))),IF(OR(G85="ALI",G85="AIE"),IF(J85&gt;=6,IF(I85&gt;=20,"H","A"),IF(J85&gt;=2,IF(I85&gt;=51,"H",IF(I85&lt;=19,"L","A")),IF(I85&lt;=50,"L","A")))))))</f>
+        <f t="shared" si="33"/>
         <v>A</v>
       </c>
       <c r="M85" s="32" t="str">
-        <f t="shared" ref="M85:M91" si="30">IF(L85="L","Baixa",IF(L85="A","Média",IF(L85="","","Alta")))</f>
+        <f t="shared" si="34"/>
         <v>Média</v>
       </c>
       <c r="N85" s="36">
-        <f t="shared" ref="N85:N91" si="31">IF(ISBLANK(G85),"",IF(G85="ALI",IF(L85="L",7,IF(L85="A",10,15)),IF(G85="AIE",IF(L85="L",5,IF(L85="A",7,10)),IF(G85="SE",IF(L85="L",4,IF(L85="A",5,7)),IF(OR(G85="EE",G85="CE"),IF(L85="L",3,IF(L85="A",4,6)))))))</f>
-        <v>10</v>
+        <f t="shared" si="35"/>
+        <v>4</v>
       </c>
       <c r="O85" s="37">
         <f>IF(H85="I",N85*Contagem!$U$11,IF(H85="E",N85*Contagem!$U$13,IF(H85="A",N85*Contagem!$U$12,IF(H85="T",N85*Contagem!$U$14,""))))</f>
-        <v>10</v>
-      </c>
-      <c r="P85" s="110"/>
-      <c r="Q85" s="111"/>
-      <c r="R85" s="111"/>
-      <c r="S85" s="111"/>
-      <c r="T85" s="111"/>
-    </row>
-    <row r="86" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P85" s="113"/>
+      <c r="Q85" s="114"/>
+      <c r="R85" s="114"/>
+      <c r="S85" s="114"/>
+      <c r="T85" s="114"/>
+    </row>
+    <row r="86" spans="1:20" ht="18" customHeight="1">
       <c r="A86" s="79" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B86" s="77"/>
       <c r="C86" s="77"/>
@@ -9916,41 +10418,37 @@
       <c r="H86" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I86" s="26">
-        <v>20</v>
-      </c>
-      <c r="J86" s="26">
-        <v>3</v>
-      </c>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
       <c r="K86" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>EEH</v>
+        <f t="shared" si="32"/>
+        <v>EEA</v>
       </c>
       <c r="L86" s="29" t="str">
-        <f t="shared" si="29"/>
-        <v>H</v>
+        <f t="shared" si="33"/>
+        <v>A</v>
       </c>
       <c r="M86" s="32" t="str">
-        <f t="shared" si="30"/>
-        <v>Alta</v>
+        <f t="shared" si="34"/>
+        <v>Média</v>
       </c>
       <c r="N86" s="36">
-        <f t="shared" si="31"/>
-        <v>6</v>
+        <f t="shared" si="35"/>
+        <v>4</v>
       </c>
       <c r="O86" s="37">
         <f>IF(H86="I",N86*Contagem!$U$11,IF(H86="E",N86*Contagem!$U$13,IF(H86="A",N86*Contagem!$U$12,IF(H86="T",N86*Contagem!$U$14,""))))</f>
-        <v>6</v>
-      </c>
-      <c r="P86" s="110"/>
-      <c r="Q86" s="111"/>
-      <c r="R86" s="111"/>
-      <c r="S86" s="111"/>
-      <c r="T86" s="111"/>
-    </row>
-    <row r="87" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P86" s="113"/>
+      <c r="Q86" s="114"/>
+      <c r="R86" s="114"/>
+      <c r="S86" s="114"/>
+      <c r="T86" s="114"/>
+    </row>
+    <row r="87" spans="1:20" ht="18" customHeight="1">
       <c r="A87" s="79" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B87" s="77"/>
       <c r="C87" s="77"/>
@@ -9958,132 +10456,113 @@
       <c r="E87" s="77"/>
       <c r="F87" s="78"/>
       <c r="G87" s="65" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H87" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I87" s="26">
-        <v>20</v>
-      </c>
-      <c r="J87" s="26">
-        <v>3</v>
-      </c>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
       <c r="K87" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>EEH</v>
+        <f t="shared" si="32"/>
+        <v>CEA</v>
       </c>
       <c r="L87" s="29" t="str">
-        <f t="shared" si="29"/>
-        <v>H</v>
+        <f t="shared" si="33"/>
+        <v>A</v>
       </c>
       <c r="M87" s="32" t="str">
-        <f t="shared" si="30"/>
-        <v>Alta</v>
+        <f t="shared" si="34"/>
+        <v>Média</v>
       </c>
       <c r="N87" s="36">
-        <f t="shared" si="31"/>
-        <v>6</v>
+        <f t="shared" si="35"/>
+        <v>4</v>
       </c>
       <c r="O87" s="37">
         <f>IF(H87="I",N87*Contagem!$U$11,IF(H87="E",N87*Contagem!$U$13,IF(H87="A",N87*Contagem!$U$12,IF(H87="T",N87*Contagem!$U$14,""))))</f>
-        <v>6</v>
-      </c>
-      <c r="P87" s="110"/>
-      <c r="Q87" s="111"/>
-      <c r="R87" s="111"/>
-      <c r="S87" s="111"/>
-      <c r="T87" s="111"/>
-    </row>
-    <row r="88" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="79" t="s">
-        <v>75</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P87" s="113"/>
+      <c r="Q87" s="114"/>
+      <c r="R87" s="114"/>
+      <c r="S87" s="114"/>
+      <c r="T87" s="114"/>
+    </row>
+    <row r="88" spans="1:20" ht="18" customHeight="1">
+      <c r="A88" s="79"/>
       <c r="B88" s="77"/>
       <c r="C88" s="77"/>
       <c r="D88" s="77"/>
       <c r="E88" s="77"/>
       <c r="F88" s="78"/>
-      <c r="G88" s="65" t="s">
-        <v>30</v>
-      </c>
+      <c r="G88" s="65"/>
       <c r="H88" s="24" t="s">
         <v>36</v>
       </c>
       <c r="I88" s="26"/>
       <c r="J88" s="26"/>
-      <c r="K88" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>EEA</v>
-      </c>
-      <c r="L88" s="29" t="str">
-        <f t="shared" si="29"/>
-        <v>A</v>
-      </c>
-      <c r="M88" s="32" t="str">
-        <f t="shared" si="30"/>
-        <v>Média</v>
-      </c>
-      <c r="N88" s="36">
-        <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="O88" s="37">
-        <f>IF(H88="I",N88*Contagem!$U$11,IF(H88="E",N88*Contagem!$U$13,IF(H88="A",N88*Contagem!$U$12,IF(H88="T",N88*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P88" s="110"/>
-      <c r="Q88" s="111"/>
-      <c r="R88" s="111"/>
-      <c r="S88" s="111"/>
-      <c r="T88" s="111"/>
-    </row>
-    <row r="89" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="B89" s="77"/>
-      <c r="C89" s="77"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="77"/>
-      <c r="F89" s="78"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="113"/>
+      <c r="Q88" s="114"/>
+      <c r="R88" s="114"/>
+      <c r="S88" s="114"/>
+      <c r="T88" s="114"/>
+    </row>
+    <row r="89" spans="1:20" ht="18" customHeight="1">
+      <c r="A89" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="81"/>
+      <c r="C89" s="81"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="82"/>
       <c r="G89" s="65" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H89" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
+      <c r="I89" s="26">
+        <v>20</v>
+      </c>
+      <c r="J89" s="26">
+        <v>3</v>
+      </c>
       <c r="K89" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>CEA</v>
+        <f t="shared" ref="K89:K95" si="36">CONCATENATE(G89,L89)</f>
+        <v>ALIA</v>
       </c>
       <c r="L89" s="29" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="L89:L95" si="37">IF(OR(ISBLANK(I89),ISBLANK(J89)),IF(OR(G89="ALI",G89="AIE"),"L",IF(ISBLANK(G89),"","A")),IF(G89="EE",IF(J89&gt;=3,IF(I89&gt;=5,"H","A"),IF(J89&gt;=2,IF(I89&gt;=16,"H",IF(I89&lt;=4,"L","A")),IF(I89&lt;=15,"L","A"))),IF(OR(G89="SE",G89="CE"),IF(J89&gt;=4,IF(I89&gt;=6,"H","A"),IF(J89&gt;=2,IF(I89&gt;=20,"H",IF(I89&lt;=5,"L","A")),IF(I89&lt;=19,"L","A"))),IF(OR(G89="ALI",G89="AIE"),IF(J89&gt;=6,IF(I89&gt;=20,"H","A"),IF(J89&gt;=2,IF(I89&gt;=51,"H",IF(I89&lt;=19,"L","A")),IF(I89&lt;=50,"L","A")))))))</f>
         <v>A</v>
       </c>
       <c r="M89" s="32" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="M89:M95" si="38">IF(L89="L","Baixa",IF(L89="A","Média",IF(L89="","","Alta")))</f>
         <v>Média</v>
       </c>
       <c r="N89" s="36">
-        <f t="shared" si="31"/>
-        <v>4</v>
+        <f t="shared" ref="N89:N95" si="39">IF(ISBLANK(G89),"",IF(G89="ALI",IF(L89="L",7,IF(L89="A",10,15)),IF(G89="AIE",IF(L89="L",5,IF(L89="A",7,10)),IF(G89="SE",IF(L89="L",4,IF(L89="A",5,7)),IF(OR(G89="EE",G89="CE"),IF(L89="L",3,IF(L89="A",4,6)))))))</f>
+        <v>10</v>
       </c>
       <c r="O89" s="37">
         <f>IF(H89="I",N89*Contagem!$U$11,IF(H89="E",N89*Contagem!$U$13,IF(H89="A",N89*Contagem!$U$12,IF(H89="T",N89*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P89" s="110"/>
-      <c r="Q89" s="111"/>
-      <c r="R89" s="111"/>
-      <c r="S89" s="111"/>
-      <c r="T89" s="111"/>
-    </row>
-    <row r="90" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="P89" s="113"/>
+      <c r="Q89" s="114"/>
+      <c r="R89" s="114"/>
+      <c r="S89" s="114"/>
+      <c r="T89" s="114"/>
+    </row>
+    <row r="90" spans="1:20" ht="18" customHeight="1">
       <c r="A90" s="79" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B90" s="77"/>
       <c r="C90" s="77"/>
@@ -10096,37 +10575,41 @@
       <c r="H90" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
+      <c r="I90" s="26">
+        <v>20</v>
+      </c>
+      <c r="J90" s="26">
+        <v>3</v>
+      </c>
       <c r="K90" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>EEA</v>
+        <f t="shared" si="36"/>
+        <v>EEH</v>
       </c>
       <c r="L90" s="29" t="str">
-        <f t="shared" si="29"/>
-        <v>A</v>
+        <f t="shared" si="37"/>
+        <v>H</v>
       </c>
       <c r="M90" s="32" t="str">
-        <f t="shared" si="30"/>
-        <v>Média</v>
+        <f t="shared" si="38"/>
+        <v>Alta</v>
       </c>
       <c r="N90" s="36">
-        <f t="shared" si="31"/>
-        <v>4</v>
+        <f t="shared" si="39"/>
+        <v>6</v>
       </c>
       <c r="O90" s="37">
         <f>IF(H90="I",N90*Contagem!$U$11,IF(H90="E",N90*Contagem!$U$13,IF(H90="A",N90*Contagem!$U$12,IF(H90="T",N90*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P90" s="110"/>
-      <c r="Q90" s="111"/>
-      <c r="R90" s="111"/>
-      <c r="S90" s="111"/>
-      <c r="T90" s="111"/>
-    </row>
-    <row r="91" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="P90" s="113"/>
+      <c r="Q90" s="114"/>
+      <c r="R90" s="114"/>
+      <c r="S90" s="114"/>
+      <c r="T90" s="114"/>
+    </row>
+    <row r="91" spans="1:20" ht="18" customHeight="1">
       <c r="A91" s="79" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B91" s="77"/>
       <c r="C91" s="77"/>
@@ -10134,42 +10617,46 @@
       <c r="E91" s="77"/>
       <c r="F91" s="78"/>
       <c r="G91" s="65" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H91" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I91" s="26"/>
-      <c r="J91" s="26"/>
+      <c r="I91" s="26">
+        <v>20</v>
+      </c>
+      <c r="J91" s="26">
+        <v>3</v>
+      </c>
       <c r="K91" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>CEA</v>
+        <f t="shared" si="36"/>
+        <v>EEH</v>
       </c>
       <c r="L91" s="29" t="str">
-        <f t="shared" si="29"/>
-        <v>A</v>
+        <f t="shared" si="37"/>
+        <v>H</v>
       </c>
       <c r="M91" s="32" t="str">
-        <f t="shared" si="30"/>
-        <v>Média</v>
+        <f t="shared" si="38"/>
+        <v>Alta</v>
       </c>
       <c r="N91" s="36">
-        <f t="shared" si="31"/>
-        <v>4</v>
+        <f t="shared" si="39"/>
+        <v>6</v>
       </c>
       <c r="O91" s="37">
         <f>IF(H91="I",N91*Contagem!$U$11,IF(H91="E",N91*Contagem!$U$13,IF(H91="A",N91*Contagem!$U$12,IF(H91="T",N91*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P91" s="110"/>
-      <c r="Q91" s="111"/>
-      <c r="R91" s="111"/>
-      <c r="S91" s="111"/>
-      <c r="T91" s="111"/>
-    </row>
-    <row r="92" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="P91" s="113"/>
+      <c r="Q91" s="114"/>
+      <c r="R91" s="114"/>
+      <c r="S91" s="114"/>
+      <c r="T91" s="114"/>
+    </row>
+    <row r="92" spans="1:20" ht="18" customHeight="1">
       <c r="A92" s="79" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B92" s="77"/>
       <c r="C92" s="77"/>
@@ -10177,7 +10664,7 @@
       <c r="E92" s="77"/>
       <c r="F92" s="78"/>
       <c r="G92" s="65" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H92" s="24" t="s">
         <v>36</v>
@@ -10185,41 +10672,41 @@
       <c r="I92" s="26"/>
       <c r="J92" s="26"/>
       <c r="K92" s="26" t="str">
-        <f t="shared" ref="K92" si="32">CONCATENATE(G92,L92)</f>
-        <v>CEA</v>
+        <f t="shared" si="36"/>
+        <v>EEA</v>
       </c>
       <c r="L92" s="29" t="str">
-        <f t="shared" ref="L92" si="33">IF(OR(ISBLANK(I92),ISBLANK(J92)),IF(OR(G92="ALI",G92="AIE"),"L",IF(ISBLANK(G92),"","A")),IF(G92="EE",IF(J92&gt;=3,IF(I92&gt;=5,"H","A"),IF(J92&gt;=2,IF(I92&gt;=16,"H",IF(I92&lt;=4,"L","A")),IF(I92&lt;=15,"L","A"))),IF(OR(G92="SE",G92="CE"),IF(J92&gt;=4,IF(I92&gt;=6,"H","A"),IF(J92&gt;=2,IF(I92&gt;=20,"H",IF(I92&lt;=5,"L","A")),IF(I92&lt;=19,"L","A"))),IF(OR(G92="ALI",G92="AIE"),IF(J92&gt;=6,IF(I92&gt;=20,"H","A"),IF(J92&gt;=2,IF(I92&gt;=51,"H",IF(I92&lt;=19,"L","A")),IF(I92&lt;=50,"L","A")))))))</f>
+        <f t="shared" si="37"/>
         <v>A</v>
       </c>
       <c r="M92" s="32" t="str">
-        <f t="shared" ref="M92" si="34">IF(L92="L","Baixa",IF(L92="A","Média",IF(L92="","","Alta")))</f>
+        <f t="shared" si="38"/>
         <v>Média</v>
       </c>
       <c r="N92" s="36">
-        <f t="shared" ref="N92" si="35">IF(ISBLANK(G92),"",IF(G92="ALI",IF(L92="L",7,IF(L92="A",10,15)),IF(G92="AIE",IF(L92="L",5,IF(L92="A",7,10)),IF(G92="SE",IF(L92="L",4,IF(L92="A",5,7)),IF(OR(G92="EE",G92="CE"),IF(L92="L",3,IF(L92="A",4,6)))))))</f>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="O92" s="37">
         <f>IF(H92="I",N92*Contagem!$U$11,IF(H92="E",N92*Contagem!$U$13,IF(H92="A",N92*Contagem!$U$12,IF(H92="T",N92*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P92" s="110"/>
-      <c r="Q92" s="111"/>
-      <c r="R92" s="111"/>
-      <c r="S92" s="111"/>
-      <c r="T92" s="111"/>
-    </row>
-    <row r="93" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="107" t="s">
-        <v>105</v>
-      </c>
-      <c r="B93" s="108"/>
-      <c r="C93" s="108"/>
-      <c r="D93" s="108"/>
-      <c r="E93" s="108"/>
-      <c r="F93" s="109"/>
-      <c r="G93" s="26" t="s">
+      <c r="P92" s="113"/>
+      <c r="Q92" s="114"/>
+      <c r="R92" s="114"/>
+      <c r="S92" s="114"/>
+      <c r="T92" s="114"/>
+    </row>
+    <row r="93" spans="1:20" ht="18" customHeight="1">
+      <c r="A93" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="77"/>
+      <c r="C93" s="77"/>
+      <c r="D93" s="77"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="65" t="s">
         <v>52</v>
       </c>
       <c r="H93" s="24" t="s">
@@ -10228,120 +10715,120 @@
       <c r="I93" s="26"/>
       <c r="J93" s="26"/>
       <c r="K93" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="36"/>
         <v>CEA</v>
       </c>
       <c r="L93" s="29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v>A</v>
       </c>
       <c r="M93" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="38"/>
         <v>Média</v>
       </c>
       <c r="N93" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="O93" s="37">
         <f>IF(H93="I",N93*Contagem!$U$11,IF(H93="E",N93*Contagem!$U$13,IF(H93="A",N93*Contagem!$U$12,IF(H93="T",N93*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P93" s="110"/>
-      <c r="Q93" s="111"/>
-      <c r="R93" s="111"/>
-      <c r="S93" s="111"/>
-      <c r="T93" s="111"/>
-    </row>
-    <row r="94" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="107"/>
-      <c r="B94" s="108"/>
-      <c r="C94" s="108"/>
-      <c r="D94" s="108"/>
-      <c r="E94" s="108"/>
-      <c r="F94" s="109"/>
-      <c r="G94" s="26"/>
+      <c r="P93" s="113"/>
+      <c r="Q93" s="114"/>
+      <c r="R93" s="114"/>
+      <c r="S93" s="114"/>
+      <c r="T93" s="114"/>
+    </row>
+    <row r="94" spans="1:20" ht="18" customHeight="1">
+      <c r="A94" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="77"/>
+      <c r="C94" s="77"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="65" t="s">
+        <v>30</v>
+      </c>
       <c r="H94" s="24" t="s">
         <v>36</v>
       </c>
       <c r="I94" s="26"/>
       <c r="J94" s="26"/>
       <c r="K94" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="36"/>
+        <v>EEA</v>
       </c>
       <c r="L94" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+        <f t="shared" si="37"/>
+        <v>A</v>
       </c>
       <c r="M94" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N94" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O94" s="37" t="e">
+        <f t="shared" si="38"/>
+        <v>Média</v>
+      </c>
+      <c r="N94" s="36">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="O94" s="37">
         <f>IF(H94="I",N94*Contagem!$U$11,IF(H94="E",N94*Contagem!$U$13,IF(H94="A",N94*Contagem!$U$12,IF(H94="T",N94*Contagem!$U$14,""))))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P94" s="110"/>
-      <c r="Q94" s="111"/>
-      <c r="R94" s="111"/>
-      <c r="S94" s="111"/>
-      <c r="T94" s="111"/>
-    </row>
-    <row r="95" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="B95" s="81"/>
-      <c r="C95" s="81"/>
-      <c r="D95" s="81"/>
-      <c r="E95" s="81"/>
-      <c r="F95" s="82"/>
+        <v>4</v>
+      </c>
+      <c r="P94" s="113"/>
+      <c r="Q94" s="114"/>
+      <c r="R94" s="114"/>
+      <c r="S94" s="114"/>
+      <c r="T94" s="114"/>
+    </row>
+    <row r="95" spans="1:20" ht="18" customHeight="1">
+      <c r="A95" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="77"/>
+      <c r="C95" s="77"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="78"/>
       <c r="G95" s="65" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H95" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I95" s="26">
-        <v>20</v>
-      </c>
-      <c r="J95" s="26">
-        <v>3</v>
-      </c>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
       <c r="K95" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>ALIA</v>
+        <f t="shared" si="36"/>
+        <v>CEA</v>
       </c>
       <c r="L95" s="29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v>A</v>
       </c>
       <c r="M95" s="32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="38"/>
         <v>Média</v>
       </c>
       <c r="N95" s="36">
-        <f t="shared" si="11"/>
-        <v>10</v>
+        <f t="shared" si="39"/>
+        <v>4</v>
       </c>
       <c r="O95" s="37">
         <f>IF(H95="I",N95*Contagem!$U$11,IF(H95="E",N95*Contagem!$U$13,IF(H95="A",N95*Contagem!$U$12,IF(H95="T",N95*Contagem!$U$14,""))))</f>
-        <v>10</v>
-      </c>
-      <c r="P95" s="110"/>
-      <c r="Q95" s="111"/>
-      <c r="R95" s="111"/>
-      <c r="S95" s="111"/>
-      <c r="T95" s="111"/>
-    </row>
-    <row r="96" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P95" s="113"/>
+      <c r="Q95" s="114"/>
+      <c r="R95" s="114"/>
+      <c r="S95" s="114"/>
+      <c r="T95" s="114"/>
+    </row>
+    <row r="96" spans="1:20" ht="18" customHeight="1">
       <c r="A96" s="79" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B96" s="77"/>
       <c r="C96" s="77"/>
@@ -10349,102 +10836,90 @@
       <c r="E96" s="77"/>
       <c r="F96" s="78"/>
       <c r="G96" s="65" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H96" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I96" s="26">
-        <v>20</v>
-      </c>
-      <c r="J96" s="26">
-        <v>3</v>
-      </c>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
       <c r="K96" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>EEH</v>
+        <f t="shared" ref="K96" si="40">CONCATENATE(G96,L96)</f>
+        <v>CEA</v>
       </c>
       <c r="L96" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>H</v>
+        <f t="shared" ref="L96" si="41">IF(OR(ISBLANK(I96),ISBLANK(J96)),IF(OR(G96="ALI",G96="AIE"),"L",IF(ISBLANK(G96),"","A")),IF(G96="EE",IF(J96&gt;=3,IF(I96&gt;=5,"H","A"),IF(J96&gt;=2,IF(I96&gt;=16,"H",IF(I96&lt;=4,"L","A")),IF(I96&lt;=15,"L","A"))),IF(OR(G96="SE",G96="CE"),IF(J96&gt;=4,IF(I96&gt;=6,"H","A"),IF(J96&gt;=2,IF(I96&gt;=20,"H",IF(I96&lt;=5,"L","A")),IF(I96&lt;=19,"L","A"))),IF(OR(G96="ALI",G96="AIE"),IF(J96&gt;=6,IF(I96&gt;=20,"H","A"),IF(J96&gt;=2,IF(I96&gt;=51,"H",IF(I96&lt;=19,"L","A")),IF(I96&lt;=50,"L","A")))))))</f>
+        <v>A</v>
       </c>
       <c r="M96" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>Alta</v>
+        <f t="shared" ref="M96" si="42">IF(L96="L","Baixa",IF(L96="A","Média",IF(L96="","","Alta")))</f>
+        <v>Média</v>
       </c>
       <c r="N96" s="36">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f t="shared" ref="N96" si="43">IF(ISBLANK(G96),"",IF(G96="ALI",IF(L96="L",7,IF(L96="A",10,15)),IF(G96="AIE",IF(L96="L",5,IF(L96="A",7,10)),IF(G96="SE",IF(L96="L",4,IF(L96="A",5,7)),IF(OR(G96="EE",G96="CE"),IF(L96="L",3,IF(L96="A",4,6)))))))</f>
+        <v>4</v>
       </c>
       <c r="O96" s="37">
         <f>IF(H96="I",N96*Contagem!$U$11,IF(H96="E",N96*Contagem!$U$13,IF(H96="A",N96*Contagem!$U$12,IF(H96="T",N96*Contagem!$U$14,""))))</f>
-        <v>6</v>
-      </c>
-      <c r="P96" s="110"/>
-      <c r="Q96" s="111"/>
-      <c r="R96" s="111"/>
-      <c r="S96" s="111"/>
-      <c r="T96" s="111"/>
-    </row>
-    <row r="97" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B97" s="77"/>
-      <c r="C97" s="77"/>
-      <c r="D97" s="77"/>
-      <c r="E97" s="77"/>
-      <c r="F97" s="78"/>
-      <c r="G97" s="65" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="P96" s="113"/>
+      <c r="Q96" s="114"/>
+      <c r="R96" s="114"/>
+      <c r="S96" s="114"/>
+      <c r="T96" s="114"/>
+    </row>
+    <row r="97" spans="1:20" ht="18" customHeight="1">
+      <c r="A97" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="116"/>
+      <c r="C97" s="116"/>
+      <c r="D97" s="116"/>
+      <c r="E97" s="116"/>
+      <c r="F97" s="117"/>
+      <c r="G97" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="H97" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I97" s="26">
-        <v>20</v>
-      </c>
-      <c r="J97" s="26">
-        <v>3</v>
-      </c>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
       <c r="K97" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>EEH</v>
+        <v>CEA</v>
       </c>
       <c r="L97" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>H</v>
+        <v>A</v>
       </c>
       <c r="M97" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Alta</v>
+        <v>Média</v>
       </c>
       <c r="N97" s="36">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O97" s="37">
         <f>IF(H97="I",N97*Contagem!$U$11,IF(H97="E",N97*Contagem!$U$13,IF(H97="A",N97*Contagem!$U$12,IF(H97="T",N97*Contagem!$U$14,""))))</f>
-        <v>6</v>
-      </c>
-      <c r="P97" s="110"/>
-      <c r="Q97" s="111"/>
-      <c r="R97" s="111"/>
-      <c r="S97" s="111"/>
-      <c r="T97" s="111"/>
-    </row>
-    <row r="98" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="B98" s="77"/>
-      <c r="C98" s="77"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="78"/>
-      <c r="G98" s="65" t="s">
-        <v>30</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P97" s="113"/>
+      <c r="Q97" s="114"/>
+      <c r="R97" s="114"/>
+      <c r="S97" s="114"/>
+      <c r="T97" s="114"/>
+    </row>
+    <row r="98" spans="1:20" ht="18" customHeight="1">
+      <c r="A98" s="118"/>
+      <c r="B98" s="116"/>
+      <c r="C98" s="116"/>
+      <c r="D98" s="116"/>
+      <c r="E98" s="116"/>
+      <c r="F98" s="117"/>
+      <c r="G98" s="26"/>
       <c r="H98" s="24" t="s">
         <v>36</v>
       </c>
@@ -10452,50 +10927,54 @@
       <c r="J98" s="26"/>
       <c r="K98" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v/>
       </c>
       <c r="L98" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>A</v>
+        <v/>
       </c>
       <c r="M98" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
-      </c>
-      <c r="N98" s="36">
+        <v/>
+      </c>
+      <c r="N98" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="O98" s="37">
+        <v/>
+      </c>
+      <c r="O98" s="37" t="e">
         <f>IF(H98="I",N98*Contagem!$U$11,IF(H98="E",N98*Contagem!$U$13,IF(H98="A",N98*Contagem!$U$12,IF(H98="T",N98*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P98" s="110"/>
-      <c r="Q98" s="111"/>
-      <c r="R98" s="111"/>
-      <c r="S98" s="111"/>
-      <c r="T98" s="111"/>
-    </row>
-    <row r="99" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="B99" s="77"/>
-      <c r="C99" s="77"/>
-      <c r="D99" s="77"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="78"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P98" s="113"/>
+      <c r="Q98" s="114"/>
+      <c r="R98" s="114"/>
+      <c r="S98" s="114"/>
+      <c r="T98" s="114"/>
+    </row>
+    <row r="99" spans="1:20" ht="18" customHeight="1">
+      <c r="A99" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="81"/>
+      <c r="C99" s="81"/>
+      <c r="D99" s="81"/>
+      <c r="E99" s="81"/>
+      <c r="F99" s="82"/>
       <c r="G99" s="65" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H99" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
+      <c r="I99" s="26">
+        <v>20</v>
+      </c>
+      <c r="J99" s="26">
+        <v>3</v>
+      </c>
       <c r="K99" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>CEA</v>
+        <v>ALIA</v>
       </c>
       <c r="L99" s="29" t="str">
         <f t="shared" si="10"/>
@@ -10507,21 +10986,21 @@
       </c>
       <c r="N99" s="36">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O99" s="37">
         <f>IF(H99="I",N99*Contagem!$U$11,IF(H99="E",N99*Contagem!$U$13,IF(H99="A",N99*Contagem!$U$12,IF(H99="T",N99*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P99" s="110"/>
-      <c r="Q99" s="111"/>
-      <c r="R99" s="111"/>
-      <c r="S99" s="111"/>
-      <c r="T99" s="111"/>
-    </row>
-    <row r="100" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="P99" s="113"/>
+      <c r="Q99" s="114"/>
+      <c r="R99" s="114"/>
+      <c r="S99" s="114"/>
+      <c r="T99" s="114"/>
+    </row>
+    <row r="100" spans="1:20" ht="18" customHeight="1">
       <c r="A100" s="79" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B100" s="77"/>
       <c r="C100" s="77"/>
@@ -10534,37 +11013,41 @@
       <c r="H100" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
+      <c r="I100" s="26">
+        <v>20</v>
+      </c>
+      <c r="J100" s="26">
+        <v>3</v>
+      </c>
       <c r="K100" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>EEH</v>
       </c>
       <c r="L100" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="M100" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Alta</v>
       </c>
       <c r="N100" s="36">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O100" s="37">
         <f>IF(H100="I",N100*Contagem!$U$11,IF(H100="E",N100*Contagem!$U$13,IF(H100="A",N100*Contagem!$U$12,IF(H100="T",N100*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P100" s="110"/>
-      <c r="Q100" s="111"/>
-      <c r="R100" s="111"/>
-      <c r="S100" s="111"/>
-      <c r="T100" s="111"/>
-    </row>
-    <row r="101" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="P100" s="113"/>
+      <c r="Q100" s="114"/>
+      <c r="R100" s="114"/>
+      <c r="S100" s="114"/>
+      <c r="T100" s="114"/>
+    </row>
+    <row r="101" spans="1:20" ht="18" customHeight="1">
       <c r="A101" s="79" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B101" s="77"/>
       <c r="C101" s="77"/>
@@ -10572,42 +11055,46 @@
       <c r="E101" s="77"/>
       <c r="F101" s="78"/>
       <c r="G101" s="65" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H101" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I101" s="26"/>
-      <c r="J101" s="26"/>
+      <c r="I101" s="26">
+        <v>20</v>
+      </c>
+      <c r="J101" s="26">
+        <v>3</v>
+      </c>
       <c r="K101" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>CEA</v>
+        <v>EEH</v>
       </c>
       <c r="L101" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="M101" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Alta</v>
       </c>
       <c r="N101" s="36">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O101" s="37">
         <f>IF(H101="I",N101*Contagem!$U$11,IF(H101="E",N101*Contagem!$U$13,IF(H101="A",N101*Contagem!$U$12,IF(H101="T",N101*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P101" s="110"/>
-      <c r="Q101" s="111"/>
-      <c r="R101" s="111"/>
-      <c r="S101" s="111"/>
-      <c r="T101" s="111"/>
-    </row>
-    <row r="102" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="P101" s="113"/>
+      <c r="Q101" s="114"/>
+      <c r="R101" s="114"/>
+      <c r="S101" s="114"/>
+      <c r="T101" s="114"/>
+    </row>
+    <row r="102" spans="1:20" ht="18" customHeight="1">
       <c r="A102" s="79" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B102" s="77"/>
       <c r="C102" s="77"/>
@@ -10615,7 +11102,7 @@
       <c r="E102" s="77"/>
       <c r="F102" s="78"/>
       <c r="G102" s="65" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H102" s="24" t="s">
         <v>36</v>
@@ -10624,7 +11111,7 @@
       <c r="J102" s="26"/>
       <c r="K102" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>CEA</v>
+        <v>EEA</v>
       </c>
       <c r="L102" s="29" t="str">
         <f t="shared" si="10"/>
@@ -10642,113 +11129,234 @@
         <f>IF(H102="I",N102*Contagem!$U$11,IF(H102="E",N102*Contagem!$U$13,IF(H102="A",N102*Contagem!$U$12,IF(H102="T",N102*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P102" s="110"/>
-      <c r="Q102" s="111"/>
-      <c r="R102" s="111"/>
-      <c r="S102" s="111"/>
-      <c r="T102" s="111"/>
-    </row>
-    <row r="103" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="107"/>
-      <c r="B103" s="108"/>
-      <c r="C103" s="108"/>
-      <c r="D103" s="108"/>
-      <c r="E103" s="108"/>
-      <c r="F103" s="109"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="24"/>
+      <c r="P102" s="113"/>
+      <c r="Q102" s="114"/>
+      <c r="R102" s="114"/>
+      <c r="S102" s="114"/>
+      <c r="T102" s="114"/>
+    </row>
+    <row r="103" spans="1:20" ht="18" customHeight="1">
+      <c r="A103" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B103" s="77"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="78"/>
+      <c r="G103" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="H103" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="I103" s="26"/>
       <c r="J103" s="26"/>
-      <c r="K103" s="26"/>
-      <c r="L103" s="29"/>
-      <c r="M103" s="32"/>
-      <c r="N103" s="36"/>
-      <c r="O103" s="37"/>
-      <c r="P103" s="110"/>
-      <c r="Q103" s="111"/>
-      <c r="R103" s="111"/>
-      <c r="S103" s="111"/>
-      <c r="T103" s="111"/>
+      <c r="K103" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>CEA</v>
+      </c>
+      <c r="L103" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="M103" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Média</v>
+      </c>
+      <c r="N103" s="36">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="O103" s="37">
+        <f>IF(H103="I",N103*Contagem!$U$11,IF(H103="E",N103*Contagem!$U$13,IF(H103="A",N103*Contagem!$U$12,IF(H103="T",N103*Contagem!$U$14,""))))</f>
+        <v>4</v>
+      </c>
+      <c r="P103" s="113"/>
+      <c r="Q103" s="114"/>
+      <c r="R103" s="114"/>
+      <c r="S103" s="114"/>
+      <c r="T103" s="114"/>
+    </row>
+    <row r="104" spans="1:20" ht="18" customHeight="1">
+      <c r="A104" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" s="77"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="78"/>
+      <c r="G104" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H104" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>EEA</v>
+      </c>
+      <c r="L104" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="M104" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Média</v>
+      </c>
+      <c r="N104" s="36">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="O104" s="37">
+        <f>IF(H104="I",N104*Contagem!$U$11,IF(H104="E",N104*Contagem!$U$13,IF(H104="A",N104*Contagem!$U$12,IF(H104="T",N104*Contagem!$U$14,""))))</f>
+        <v>4</v>
+      </c>
+      <c r="P104" s="113"/>
+      <c r="Q104" s="114"/>
+      <c r="R104" s="114"/>
+      <c r="S104" s="114"/>
+      <c r="T104" s="114"/>
+    </row>
+    <row r="105" spans="1:20" ht="18" customHeight="1">
+      <c r="A105" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" s="77"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="78"/>
+      <c r="G105" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="H105" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I105" s="26"/>
+      <c r="J105" s="26"/>
+      <c r="K105" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>CEA</v>
+      </c>
+      <c r="L105" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="M105" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Média</v>
+      </c>
+      <c r="N105" s="36">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="O105" s="37">
+        <f>IF(H105="I",N105*Contagem!$U$11,IF(H105="E",N105*Contagem!$U$13,IF(H105="A",N105*Contagem!$U$12,IF(H105="T",N105*Contagem!$U$14,""))))</f>
+        <v>4</v>
+      </c>
+      <c r="P105" s="113"/>
+      <c r="Q105" s="114"/>
+      <c r="R105" s="114"/>
+      <c r="S105" s="114"/>
+      <c r="T105" s="114"/>
+    </row>
+    <row r="106" spans="1:20" ht="18" customHeight="1">
+      <c r="A106" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106" s="77"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="H106" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I106" s="26"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>CEA</v>
+      </c>
+      <c r="L106" s="29" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="M106" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Média</v>
+      </c>
+      <c r="N106" s="36">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="O106" s="37">
+        <f>IF(H106="I",N106*Contagem!$U$11,IF(H106="E",N106*Contagem!$U$13,IF(H106="A",N106*Contagem!$U$12,IF(H106="T",N106*Contagem!$U$14,""))))</f>
+        <v>4</v>
+      </c>
+      <c r="P106" s="113"/>
+      <c r="Q106" s="114"/>
+      <c r="R106" s="114"/>
+      <c r="S106" s="114"/>
+      <c r="T106" s="114"/>
+    </row>
+    <row r="107" spans="1:20" ht="18" customHeight="1">
+      <c r="A107" s="118"/>
+      <c r="B107" s="116"/>
+      <c r="C107" s="116"/>
+      <c r="D107" s="116"/>
+      <c r="E107" s="116"/>
+      <c r="F107" s="117"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="32"/>
+      <c r="N107" s="36"/>
+      <c r="O107" s="37"/>
+      <c r="P107" s="113"/>
+      <c r="Q107" s="114"/>
+      <c r="R107" s="114"/>
+      <c r="S107" s="114"/>
+      <c r="T107" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="P75:T75"/>
-    <mergeCell ref="P79:T79"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="P106:T106"/>
+    <mergeCell ref="P107:T107"/>
+    <mergeCell ref="P100:T100"/>
+    <mergeCell ref="P101:T101"/>
     <mergeCell ref="P80:T80"/>
-    <mergeCell ref="P81:T81"/>
-    <mergeCell ref="P74:T74"/>
-    <mergeCell ref="P77:T77"/>
-    <mergeCell ref="P78:T78"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="P58:T58"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="P59:T59"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="P98:T98"/>
+    <mergeCell ref="P99:T99"/>
+    <mergeCell ref="P102:T102"/>
+    <mergeCell ref="P103:T103"/>
+    <mergeCell ref="P86:T86"/>
+    <mergeCell ref="P87:T87"/>
+    <mergeCell ref="P88:T88"/>
+    <mergeCell ref="P89:T89"/>
+    <mergeCell ref="P104:T104"/>
+    <mergeCell ref="P105:T105"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="P95:T95"/>
+    <mergeCell ref="P90:T90"/>
+    <mergeCell ref="P91:T91"/>
+    <mergeCell ref="P92:T92"/>
     <mergeCell ref="P93:T93"/>
-    <mergeCell ref="P92:T92"/>
+    <mergeCell ref="P94:T94"/>
+    <mergeCell ref="P97:T97"/>
+    <mergeCell ref="P96:T96"/>
     <mergeCell ref="A1:O3"/>
     <mergeCell ref="G4:T4"/>
     <mergeCell ref="P12:T12"/>
@@ -10771,252 +11379,363 @@
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="P102:T102"/>
-    <mergeCell ref="P103:T103"/>
-    <mergeCell ref="P96:T96"/>
-    <mergeCell ref="P97:T97"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="P75:T75"/>
     <mergeCell ref="P76:T76"/>
-    <mergeCell ref="P94:T94"/>
-    <mergeCell ref="P95:T95"/>
-    <mergeCell ref="P98:T98"/>
-    <mergeCell ref="P99:T99"/>
-    <mergeCell ref="P82:T82"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="P77:T77"/>
+    <mergeCell ref="P79:T79"/>
     <mergeCell ref="P83:T83"/>
     <mergeCell ref="P84:T84"/>
     <mergeCell ref="P85:T85"/>
-    <mergeCell ref="P100:T100"/>
-    <mergeCell ref="P101:T101"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="P91:T91"/>
-    <mergeCell ref="P86:T86"/>
-    <mergeCell ref="P87:T87"/>
-    <mergeCell ref="P88:T88"/>
-    <mergeCell ref="P89:T89"/>
-    <mergeCell ref="P90:T90"/>
+    <mergeCell ref="P78:T78"/>
+    <mergeCell ref="P81:T81"/>
+    <mergeCell ref="P82:T82"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="P53:T53"/>
   </mergeCells>
-  <conditionalFormatting sqref="H8:H15 H47:H52 H93:H94 H17:H23 H25:H29 H54:H74 H33:H45">
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+  <conditionalFormatting sqref="H8:H15 H47:H52 H97:H98 H17:H23 H25:H29 H54:H58 H33:H45 H63:H78">
+    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H15 H47:H52 H93:H94 H17:H23 H25:H29 H54:H74 H33:H45">
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
+  <conditionalFormatting sqref="H8:H15 H47:H52 H97:H98 H17:H23 H25:H29 H54:H58 H33:H45 H63:H78">
+    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H15 H47:H52 H93:H94 H17:H23 H25:H29 H54:H74 H33:H45">
-    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
+  <conditionalFormatting sqref="H8:H15 H47:H52 H97:H98 H17:H23 H25:H29 H54:H58 H33:H45 H63:H78">
+    <cfRule type="cellIs" dxfId="54" priority="66" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="61" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="56" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="40" priority="50" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="39" priority="51" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H32">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H32">
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="44" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H32">
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77:H83">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+  <conditionalFormatting sqref="H81:H87">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77:H83">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+  <conditionalFormatting sqref="H81:H87">
+    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77:H83">
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+  <conditionalFormatting sqref="H81:H87">
+    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+  <conditionalFormatting sqref="H88">
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+  <conditionalFormatting sqref="H88">
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+  <conditionalFormatting sqref="H88">
+    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85:H91">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+  <conditionalFormatting sqref="H89:H95">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85:H91">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+  <conditionalFormatting sqref="H89:H95">
+    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85:H91">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+  <conditionalFormatting sqref="H89:H95">
+    <cfRule type="cellIs" dxfId="24" priority="33" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+  <conditionalFormatting sqref="H96">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+  <conditionalFormatting sqref="H96">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+  <conditionalFormatting sqref="H96">
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+  <conditionalFormatting sqref="H107">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="H107">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+  <conditionalFormatting sqref="H107">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95:H101">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+  <conditionalFormatting sqref="H99:H105">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95:H101">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="H99:H105">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95:H101">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+  <conditionalFormatting sqref="H99:H105">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H102">
+  <conditionalFormatting sqref="H106">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H106">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H106">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H102">
+  <conditionalFormatting sqref="H62">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H102">
+  <conditionalFormatting sqref="H62">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"E"</formula>
     </cfRule>
@@ -11036,7 +11755,7 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
@@ -11052,24 +11771,24 @@
     <col min="12" max="12" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="141" t="s">
+    <row r="1" spans="1:12" ht="12" customHeight="1">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="143"/>
-    </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="113"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="147"/>
+    </row>
+    <row r="2" spans="1:12" ht="12" customHeight="1">
+      <c r="A2" s="128"/>
       <c r="B2" s="98"/>
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
@@ -11080,10 +11799,10 @@
       <c r="I2" s="98"/>
       <c r="J2" s="98"/>
       <c r="K2" s="98"/>
-      <c r="L2" s="144"/>
-    </row>
-    <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="137"/>
+      <c r="L2" s="148"/>
+    </row>
+    <row r="3" spans="1:12" ht="12" customHeight="1">
+      <c r="A3" s="149"/>
       <c r="B3" s="101"/>
       <c r="C3" s="101"/>
       <c r="D3" s="101"/>
@@ -11094,49 +11813,49 @@
       <c r="I3" s="101"/>
       <c r="J3" s="101"/>
       <c r="K3" s="101"/>
-      <c r="L3" s="145"/>
-    </row>
-    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="139" t="str">
+      <c r="L3" s="150"/>
+    </row>
+    <row r="4" spans="1:12" ht="12" customHeight="1">
+      <c r="A4" s="143" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="147" t="str">
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="152" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="148"/>
-    </row>
-    <row r="5" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="139" t="str">
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="153"/>
+    </row>
+    <row r="5" spans="1:12" ht="12" customHeight="1">
+      <c r="A5" s="143" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="147" t="str">
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="152" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="148"/>
-    </row>
-    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="153"/>
+    </row>
+    <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="3" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v xml:space="preserve">Empresa : </v>
@@ -11145,47 +11864,47 @@
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="151" t="str">
+      <c r="F6" s="156" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 400</v>
       </c>
-      <c r="G6" s="85"/>
-      <c r="H6" s="151" t="str">
+      <c r="G6" s="90"/>
+      <c r="H6" s="156" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
-        <v xml:space="preserve"> Custo= R$ 164.800,00</v>
-      </c>
-      <c r="I6" s="84"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="150" t="str">
+        <v xml:space="preserve"> Custo= R$ 162.000,00</v>
+      </c>
+      <c r="I6" s="92"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="155" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 412</v>
-      </c>
-      <c r="L6" s="148"/>
-    </row>
-    <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="136" t="s">
+        <v>PF  = 405</v>
+      </c>
+      <c r="L6" s="153"/>
+    </row>
+    <row r="7" spans="1:12" ht="12" customHeight="1">
+      <c r="A7" s="157" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="95"/>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="142" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="95"/>
       <c r="E7" s="95"/>
       <c r="F7" s="95"/>
-      <c r="G7" s="146" t="s">
+      <c r="G7" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146" t="s">
+      <c r="H7" s="151"/>
+      <c r="I7" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="149"/>
-    </row>
-    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="137"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="154"/>
+    </row>
+    <row r="8" spans="1:12" ht="12" customHeight="1">
+      <c r="A8" s="149"/>
       <c r="B8" s="101"/>
       <c r="C8" s="101"/>
       <c r="D8" s="101"/>
@@ -11194,11 +11913,11 @@
       <c r="G8" s="101"/>
       <c r="H8" s="101"/>
       <c r="I8" s="101"/>
-      <c r="J8" s="145"/>
+      <c r="J8" s="150"/>
       <c r="K8" s="101"/>
-      <c r="L8" s="145"/>
-    </row>
-    <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="150"/>
+    </row>
+    <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -11212,7 +11931,7 @@
       <c r="K9" s="14"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="12" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="18" t="s">
         <v>30</v>
@@ -11238,12 +11957,12 @@
       <c r="K10" s="18"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="12" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="18"/>
       <c r="C11" s="20">
         <f>COUNTIF(CF,"EEA")</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="25" t="s">
@@ -11254,7 +11973,7 @@
       </c>
       <c r="G11" s="20">
         <f>C11*4</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="27"/>
@@ -11262,7 +11981,7 @@
       <c r="K11" s="18"/>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="12" customHeight="1">
       <c r="A12" s="16"/>
       <c r="B12" s="18"/>
       <c r="C12" s="20">
@@ -11286,7 +12005,7 @@
       <c r="K12" s="18"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="6.75" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="18"/>
       <c r="C13" s="14"/>
@@ -11300,14 +12019,14 @@
       <c r="K13" s="18"/>
       <c r="L13" s="28"/>
     </row>
-    <row r="14" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="12" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="20">
         <f>SUM(C10:C12)</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -11316,18 +12035,18 @@
       </c>
       <c r="G14" s="20">
         <f>SUM(G10:G12)</f>
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="33">
         <f>IF($G$45&lt;&gt;0,G14/$G$45,"")</f>
-        <v>0.50242718446601942</v>
+        <v>0.46172839506172841</v>
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="28"/>
     </row>
-    <row r="15" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="6" customHeight="1">
       <c r="A15" s="34"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -11341,7 +12060,7 @@
       <c r="K15" s="20"/>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="12" customHeight="1">
       <c r="A16" s="16"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -11355,7 +12074,7 @@
       <c r="K16" s="18"/>
       <c r="L16" s="28"/>
     </row>
-    <row r="17" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="12" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="18" t="s">
         <v>49</v>
@@ -11381,12 +12100,12 @@
       <c r="K17" s="18"/>
       <c r="L17" s="28"/>
     </row>
-    <row r="18" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="12" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="18"/>
       <c r="C18" s="20">
         <f>COUNTIF(CF,"SEA")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="25" t="s">
@@ -11397,7 +12116,7 @@
       </c>
       <c r="G18" s="20">
         <f>C18*5</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -11405,7 +12124,7 @@
       <c r="K18" s="18"/>
       <c r="L18" s="28"/>
     </row>
-    <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="12" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="18"/>
       <c r="C19" s="20">
@@ -11429,7 +12148,7 @@
       <c r="K19" s="18"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="6.75" customHeight="1">
       <c r="A20" s="16"/>
       <c r="B20" s="18"/>
       <c r="C20" s="14"/>
@@ -11443,14 +12162,14 @@
       <c r="K20" s="18"/>
       <c r="L20" s="28"/>
     </row>
-    <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="12" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="20">
         <f>SUM(C17:C19)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -11459,18 +12178,18 @@
       </c>
       <c r="G21" s="20">
         <f>SUM(G17:G19)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="39">
         <f>IF($G$45&lt;&gt;0,G21/$G$45,"")</f>
-        <v>1.2135922330097087E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="28"/>
     </row>
-    <row r="22" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="6" customHeight="1">
       <c r="A22" s="34"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -11484,7 +12203,7 @@
       <c r="K22" s="20"/>
       <c r="L22" s="35"/>
     </row>
-    <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="12" customHeight="1">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="18"/>
@@ -11498,7 +12217,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="12" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="18" t="s">
         <v>52</v>
@@ -11524,12 +12243,12 @@
       <c r="K24" s="18"/>
       <c r="L24" s="28"/>
     </row>
-    <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="12" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="18"/>
       <c r="C25" s="20">
         <f>COUNTIF(CF,"CEA")</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="25" t="s">
@@ -11540,7 +12259,7 @@
       </c>
       <c r="G25" s="20">
         <f>C25*4</f>
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
@@ -11548,7 +12267,7 @@
       <c r="K25" s="18"/>
       <c r="L25" s="28"/>
     </row>
-    <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="12" customHeight="1">
       <c r="A26" s="16"/>
       <c r="B26" s="18"/>
       <c r="C26" s="20">
@@ -11572,7 +12291,7 @@
       <c r="K26" s="18"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="6.75" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="18"/>
       <c r="C27" s="14"/>
@@ -11586,14 +12305,14 @@
       <c r="K27" s="18"/>
       <c r="L27" s="28"/>
     </row>
-    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="12" customHeight="1">
       <c r="A28" s="16"/>
       <c r="B28" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="20">
         <f>SUM(C24:C26)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -11602,18 +12321,18 @@
       </c>
       <c r="G28" s="20">
         <f>SUM(G24:G26)</f>
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="43">
         <f>IF($G$45&lt;&gt;0,G28/$G$45,"")</f>
-        <v>0.25242718446601942</v>
+        <v>0.24691358024691357</v>
       </c>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
       <c r="L28" s="28"/>
     </row>
-    <row r="29" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="6" customHeight="1">
       <c r="A29" s="34"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -11627,7 +12346,7 @@
       <c r="K29" s="20"/>
       <c r="L29" s="35"/>
     </row>
-    <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="12" customHeight="1">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="18"/>
@@ -11641,14 +12360,14 @@
       <c r="K30" s="14"/>
       <c r="L30" s="15"/>
     </row>
-    <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="12" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="20">
         <f>COUNTIF(CF,"ALIL")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18" t="s">
@@ -11659,7 +12378,7 @@
       </c>
       <c r="G31" s="20">
         <f>C31*7</f>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
@@ -11667,7 +12386,7 @@
       <c r="K31" s="18"/>
       <c r="L31" s="28"/>
     </row>
-    <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="12" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="18"/>
       <c r="C32" s="20">
@@ -11691,7 +12410,7 @@
       <c r="K32" s="18"/>
       <c r="L32" s="28"/>
     </row>
-    <row r="33" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="12" customHeight="1">
       <c r="A33" s="16"/>
       <c r="B33" s="18"/>
       <c r="C33" s="20">
@@ -11715,7 +12434,7 @@
       <c r="K33" s="18"/>
       <c r="L33" s="30"/>
     </row>
-    <row r="34" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="6.75" customHeight="1">
       <c r="A34" s="16"/>
       <c r="B34" s="18"/>
       <c r="C34" s="14"/>
@@ -11729,14 +12448,14 @@
       <c r="K34" s="18"/>
       <c r="L34" s="28"/>
     </row>
-    <row r="35" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="12" customHeight="1">
       <c r="A35" s="16"/>
       <c r="B35" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="20">
         <f>SUM(C31:C33)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
@@ -11745,18 +12464,18 @@
       </c>
       <c r="G35" s="20">
         <f>SUM(G31:G33)</f>
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H35" s="18"/>
       <c r="I35" s="44">
         <f>IF($G$45&lt;&gt;0,G35/$G$45,"")</f>
-        <v>0.23300970873786409</v>
+        <v>0.25432098765432098</v>
       </c>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
       <c r="L35" s="28"/>
     </row>
-    <row r="36" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="6" customHeight="1">
       <c r="A36" s="34"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -11770,7 +12489,7 @@
       <c r="K36" s="20"/>
       <c r="L36" s="35"/>
     </row>
-    <row r="37" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="12" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="18"/>
@@ -11784,7 +12503,7 @@
       <c r="K37" s="14"/>
       <c r="L37" s="15"/>
     </row>
-    <row r="38" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="12" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="18" t="s">
         <v>58</v>
@@ -11810,7 +12529,7 @@
       <c r="K38" s="18"/>
       <c r="L38" s="28"/>
     </row>
-    <row r="39" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="12" customHeight="1">
       <c r="A39" s="16"/>
       <c r="B39" s="18"/>
       <c r="C39" s="20">
@@ -11834,7 +12553,7 @@
       <c r="K39" s="18"/>
       <c r="L39" s="28"/>
     </row>
-    <row r="40" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="12" customHeight="1">
       <c r="A40" s="16"/>
       <c r="B40" s="18"/>
       <c r="C40" s="20">
@@ -11858,7 +12577,7 @@
       <c r="K40" s="18"/>
       <c r="L40" s="30"/>
     </row>
-    <row r="41" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="6.75" customHeight="1">
       <c r="A41" s="16"/>
       <c r="B41" s="18"/>
       <c r="C41" s="14"/>
@@ -11872,7 +12591,7 @@
       <c r="K41" s="18"/>
       <c r="L41" s="28"/>
     </row>
-    <row r="42" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="12" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="31" t="s">
         <v>45</v>
@@ -11899,7 +12618,7 @@
       <c r="K42" s="18"/>
       <c r="L42" s="28"/>
     </row>
-    <row r="43" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="6" customHeight="1">
       <c r="A43" s="34"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -11913,7 +12632,7 @@
       <c r="K43" s="20"/>
       <c r="L43" s="35"/>
     </row>
-    <row r="44" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="12" customHeight="1">
       <c r="A44" s="16"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -11927,7 +12646,7 @@
       <c r="K44" s="18"/>
       <c r="L44" s="28"/>
     </row>
-    <row r="45" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="12" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="18" t="s">
         <v>61</v>
@@ -11938,7 +12657,7 @@
       <c r="F45" s="18"/>
       <c r="G45" s="20">
         <f>SUM(G14+G21+G28+G35+G42)</f>
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
@@ -11946,7 +12665,7 @@
       <c r="K45" s="18"/>
       <c r="L45" s="28"/>
     </row>
-    <row r="46" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="12" customHeight="1">
       <c r="A46" s="16"/>
       <c r="B46" s="18" t="s">
         <v>62</v>
@@ -11957,7 +12676,7 @@
       <c r="F46" s="18"/>
       <c r="G46" s="20">
         <f>(C10+C11+C12)*4+(C17+C18+C19)*5+(C24+C25+C26)*4+(C31+C32+C33)*7+(C38+C39+C40)*5</f>
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
@@ -11965,7 +12684,7 @@
       <c r="K46" s="18"/>
       <c r="L46" s="28"/>
     </row>
-    <row r="47" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="12" customHeight="1">
       <c r="A47" s="16"/>
       <c r="B47" s="18" t="s">
         <v>64</v>
@@ -11976,7 +12695,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="20">
         <f>(C31+C32+C33)*35+(C38+C39+C40)*15</f>
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
@@ -11984,7 +12703,7 @@
       <c r="K47" s="18"/>
       <c r="L47" s="28"/>
     </row>
-    <row r="48" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="12" customHeight="1">
       <c r="A48" s="16"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -11998,7 +12717,7 @@
       <c r="K48" s="18"/>
       <c r="L48" s="28"/>
     </row>
-    <row r="49" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="12" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -12012,7 +12731,7 @@
       <c r="K49" s="18"/>
       <c r="L49" s="28"/>
     </row>
-    <row r="50" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="12" customHeight="1">
       <c r="A50" s="16"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -12026,7 +12745,7 @@
       <c r="K50" s="18"/>
       <c r="L50" s="28"/>
     </row>
-    <row r="51" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="13.5" customHeight="1">
       <c r="A51" s="16"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -12040,7 +12759,7 @@
       <c r="K51" s="18"/>
       <c r="L51" s="28"/>
     </row>
-    <row r="52" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="12" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -12054,7 +12773,7 @@
       <c r="K52" s="14"/>
       <c r="L52" s="15"/>
     </row>
-    <row r="53" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="12" customHeight="1">
       <c r="A53" s="16"/>
       <c r="B53" s="18" t="s">
         <v>65</v>
@@ -12070,7 +12789,7 @@
       <c r="K53" s="18"/>
       <c r="L53" s="28"/>
     </row>
-    <row r="54" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="12" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -12090,16 +12809,16 @@
       <c r="K54" s="18"/>
       <c r="L54" s="28"/>
     </row>
-    <row r="55" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="12" customHeight="1">
       <c r="A55" s="16"/>
-      <c r="B55" s="140" t="s">
+      <c r="B55" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="84"/>
-      <c r="D55" s="85"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="90"/>
       <c r="E55" s="47">
-        <f>SUMIF(Funções!$H$8:$H$103,"I",Funções!$N$8:$N$103)</f>
-        <v>412</v>
+        <f>SUMIF(Funções!$H$8:$H$107,"I",Funções!$N$8:$N$107)</f>
+        <v>405</v>
       </c>
       <c r="F55" s="47">
         <f>Contagem!U11</f>
@@ -12107,7 +12826,7 @@
       </c>
       <c r="G55" s="47">
         <f t="shared" ref="G55:G58" si="0">F55*E55</f>
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="H55" s="48"/>
       <c r="I55" s="48"/>
@@ -12117,15 +12836,15 @@
       </c>
       <c r="L55" s="28"/>
     </row>
-    <row r="56" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="12" customHeight="1">
       <c r="A56" s="16"/>
-      <c r="B56" s="140" t="s">
+      <c r="B56" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="84"/>
-      <c r="D56" s="85"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="90"/>
       <c r="E56" s="47">
-        <f>SUMIF(Funções!$H$8:$H$103,"A",Funções!$N$8:$N$103)</f>
+        <f>SUMIF(Funções!$H$8:$H$107,"A",Funções!$N$8:$N$107)</f>
         <v>0</v>
       </c>
       <c r="F56" s="47">
@@ -12141,19 +12860,19 @@
       <c r="J56" s="48"/>
       <c r="K56" s="50">
         <f>Contagem!W5</f>
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="L56" s="28"/>
     </row>
-    <row r="57" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="12" customHeight="1">
       <c r="A57" s="16"/>
-      <c r="B57" s="140" t="s">
+      <c r="B57" s="144" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="84"/>
-      <c r="D57" s="85"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="90"/>
       <c r="E57" s="47">
-        <f>SUMIF(Funções!$H$8:$H$103,"E",Funções!$N$8:$N$103)</f>
+        <f>SUMIF(Funções!$H$8:$H$107,"E",Funções!$N$8:$N$107)</f>
         <v>0</v>
       </c>
       <c r="F57" s="47">
@@ -12170,15 +12889,15 @@
       <c r="K57" s="18"/>
       <c r="L57" s="28"/>
     </row>
-    <row r="58" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="12" customHeight="1">
       <c r="A58" s="16"/>
-      <c r="B58" s="140" t="s">
+      <c r="B58" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="84"/>
-      <c r="D58" s="85"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="90"/>
       <c r="E58" s="47">
-        <f>SUMIF(Funções!$H$8:$H$103,"T",Funções!$N$8:$N$103)</f>
+        <f>SUMIF(Funções!$H$8:$H$107,"T",Funções!$N$8:$N$107)</f>
         <v>0</v>
       </c>
       <c r="F58" s="47">
@@ -12195,7 +12914,7 @@
       <c r="K58" s="18"/>
       <c r="L58" s="28"/>
     </row>
-    <row r="59" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="12" customHeight="1">
       <c r="A59" s="51"/>
       <c r="B59" s="52"/>
       <c r="C59" s="53"/>
@@ -12211,7 +12930,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:L3"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="H7:H8"/>
@@ -12229,6 +12947,7 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A1:L3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
